--- a/BCO.xlsx
+++ b/BCO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880EBB4C-B739-F548-9592-D4B3F7473DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCDF52B-9F85-2A43-B711-44CD801FE997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="500" windowWidth="47360" windowHeight="28040" xr2:uid="{F1545CBA-EC3E-6344-9C1D-FFBBCBF21B24}"/>
+    <workbookView xWindow="3840" yWindow="760" windowWidth="47360" windowHeight="28040" xr2:uid="{F1545CBA-EC3E-6344-9C1D-FFBBCBF21B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,10 +43,18 @@
   <commentList>
     <comment ref="AE15" authorId="0" shapeId="0" xr:uid="{DEC92FE9-EC10-1B4D-AE5E-80D88853B909}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color theme="1"/>
+            <rFont val="ArialMT"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Loss on leaving Venezuela biz</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>P</t>
   </si>
@@ -397,14 +404,27 @@
   </si>
   <si>
     <t>Q1'22</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -454,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -464,6 +484,8 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,16 +508,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>416112</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -510,8 +532,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10224994" y="31750"/>
-          <a:ext cx="2241" cy="12257368"/>
+          <a:off x="11061700" y="0"/>
+          <a:ext cx="2241" cy="13572191"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -536,13 +558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>455706</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>7470</xdr:rowOff>
@@ -560,8 +582,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="16114059" y="0"/>
-          <a:ext cx="27641" cy="12498294"/>
+          <a:off x="16584706" y="0"/>
+          <a:ext cx="27641" cy="13813117"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -921,7 +943,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -967,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>80.84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -981,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>45.051141000000001</v>
+        <v>44.461995999999999</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -993,7 +1015,7 @@
       </c>
       <c r="K6" s="1">
         <f>+K4*K5</f>
-        <v>3641.9342384400002</v>
+        <v>4312.8136119999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1001,12 +1023,12 @@
         <v>3</v>
       </c>
       <c r="K7" s="1">
-        <f>933.5+387</f>
-        <v>1320.5</v>
+        <f>1122.7+557.9</f>
+        <v>1680.6</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>+L5</f>
-        <v>Q323</v>
+        <v>Q124</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1020,12 +1042,12 @@
         <v>4</v>
       </c>
       <c r="K8" s="1">
-        <f>124.9+92+3202.2</f>
-        <v>3419.1</v>
+        <f>155+125.6</f>
+        <v>280.60000000000002</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>+L7</f>
-        <v>Q323</v>
+        <v>Q124</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1040,7 +1062,7 @@
       </c>
       <c r="K9" s="1">
         <f>+K6-K7+K8</f>
-        <v>5740.5342384400001</v>
+        <v>2912.8136119999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1158,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D750096C-5F58-B543-AB30-0D5A7B2C30D9}">
-  <dimension ref="A1:IZ61"/>
+  <dimension ref="A1:IL61"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
+      <selection pane="bottomRight" activeCell="AW31" sqref="AW31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1180,21 +1202,22 @@
     <col min="23" max="27" width="5.5" style="1" customWidth="1"/>
     <col min="28" max="30" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="45" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="260" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="261" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:246">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="2" customFormat="1">
+    <row r="2" spans="1:246" s="2" customFormat="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -1257,6 +1280,18 @@
       <c r="V2" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="W2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="AB2" s="2">
         <v>2015</v>
       </c>
@@ -1328,8 +1363,812 @@
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" s="2" customFormat="1">
+      <c r="AT2" s="2">
+        <f>+AS2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AU2" s="2">
+        <f t="shared" ref="AU2:DF2" si="1">+AT2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="AV2" s="2">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="AW2" s="2">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="AX2" s="2">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="AY2" s="2">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="AZ2" s="2">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="BA2" s="2">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="BB2" s="2">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="BC2" s="2">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="BD2" s="2">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="BE2" s="2">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="BF2" s="2">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="BG2" s="2">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="BH2" s="2">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="BI2" s="2">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="BJ2" s="2">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="BK2" s="2">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="BL2" s="2">
+        <f t="shared" si="1"/>
+        <v>2051</v>
+      </c>
+      <c r="BM2" s="2">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="BN2" s="2">
+        <f t="shared" si="1"/>
+        <v>2053</v>
+      </c>
+      <c r="BO2" s="2">
+        <f t="shared" si="1"/>
+        <v>2054</v>
+      </c>
+      <c r="BP2" s="2">
+        <f t="shared" si="1"/>
+        <v>2055</v>
+      </c>
+      <c r="BQ2" s="2">
+        <f t="shared" si="1"/>
+        <v>2056</v>
+      </c>
+      <c r="BR2" s="2">
+        <f t="shared" si="1"/>
+        <v>2057</v>
+      </c>
+      <c r="BS2" s="2">
+        <f t="shared" si="1"/>
+        <v>2058</v>
+      </c>
+      <c r="BT2" s="2">
+        <f t="shared" si="1"/>
+        <v>2059</v>
+      </c>
+      <c r="BU2" s="2">
+        <f t="shared" si="1"/>
+        <v>2060</v>
+      </c>
+      <c r="BV2" s="2">
+        <f t="shared" si="1"/>
+        <v>2061</v>
+      </c>
+      <c r="BW2" s="2">
+        <f t="shared" si="1"/>
+        <v>2062</v>
+      </c>
+      <c r="BX2" s="2">
+        <f t="shared" si="1"/>
+        <v>2063</v>
+      </c>
+      <c r="BY2" s="2">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
+      <c r="BZ2" s="2">
+        <f t="shared" si="1"/>
+        <v>2065</v>
+      </c>
+      <c r="CA2" s="2">
+        <f t="shared" si="1"/>
+        <v>2066</v>
+      </c>
+      <c r="CB2" s="2">
+        <f t="shared" si="1"/>
+        <v>2067</v>
+      </c>
+      <c r="CC2" s="2">
+        <f t="shared" si="1"/>
+        <v>2068</v>
+      </c>
+      <c r="CD2" s="2">
+        <f t="shared" si="1"/>
+        <v>2069</v>
+      </c>
+      <c r="CE2" s="2">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+      <c r="CF2" s="2">
+        <f t="shared" si="1"/>
+        <v>2071</v>
+      </c>
+      <c r="CG2" s="2">
+        <f t="shared" si="1"/>
+        <v>2072</v>
+      </c>
+      <c r="CH2" s="2">
+        <f t="shared" si="1"/>
+        <v>2073</v>
+      </c>
+      <c r="CI2" s="2">
+        <f t="shared" si="1"/>
+        <v>2074</v>
+      </c>
+      <c r="CJ2" s="2">
+        <f t="shared" si="1"/>
+        <v>2075</v>
+      </c>
+      <c r="CK2" s="2">
+        <f t="shared" si="1"/>
+        <v>2076</v>
+      </c>
+      <c r="CL2" s="2">
+        <f t="shared" si="1"/>
+        <v>2077</v>
+      </c>
+      <c r="CM2" s="2">
+        <f t="shared" si="1"/>
+        <v>2078</v>
+      </c>
+      <c r="CN2" s="2">
+        <f t="shared" si="1"/>
+        <v>2079</v>
+      </c>
+      <c r="CO2" s="2">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+      <c r="CP2" s="2">
+        <f t="shared" si="1"/>
+        <v>2081</v>
+      </c>
+      <c r="CQ2" s="2">
+        <f t="shared" si="1"/>
+        <v>2082</v>
+      </c>
+      <c r="CR2" s="2">
+        <f t="shared" si="1"/>
+        <v>2083</v>
+      </c>
+      <c r="CS2" s="2">
+        <f t="shared" si="1"/>
+        <v>2084</v>
+      </c>
+      <c r="CT2" s="2">
+        <f t="shared" si="1"/>
+        <v>2085</v>
+      </c>
+      <c r="CU2" s="2">
+        <f t="shared" si="1"/>
+        <v>2086</v>
+      </c>
+      <c r="CV2" s="2">
+        <f t="shared" si="1"/>
+        <v>2087</v>
+      </c>
+      <c r="CW2" s="2">
+        <f t="shared" si="1"/>
+        <v>2088</v>
+      </c>
+      <c r="CX2" s="2">
+        <f t="shared" si="1"/>
+        <v>2089</v>
+      </c>
+      <c r="CY2" s="2">
+        <f t="shared" si="1"/>
+        <v>2090</v>
+      </c>
+      <c r="CZ2" s="2">
+        <f t="shared" si="1"/>
+        <v>2091</v>
+      </c>
+      <c r="DA2" s="2">
+        <f t="shared" si="1"/>
+        <v>2092</v>
+      </c>
+      <c r="DB2" s="2">
+        <f t="shared" si="1"/>
+        <v>2093</v>
+      </c>
+      <c r="DC2" s="2">
+        <f t="shared" si="1"/>
+        <v>2094</v>
+      </c>
+      <c r="DD2" s="2">
+        <f t="shared" si="1"/>
+        <v>2095</v>
+      </c>
+      <c r="DE2" s="2">
+        <f t="shared" si="1"/>
+        <v>2096</v>
+      </c>
+      <c r="DF2" s="2">
+        <f t="shared" si="1"/>
+        <v>2097</v>
+      </c>
+      <c r="DG2" s="2">
+        <f t="shared" ref="DG2:FR2" si="2">+DF2+1</f>
+        <v>2098</v>
+      </c>
+      <c r="DH2" s="2">
+        <f t="shared" si="2"/>
+        <v>2099</v>
+      </c>
+      <c r="DI2" s="2">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="DJ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2101</v>
+      </c>
+      <c r="DK2" s="2">
+        <f t="shared" si="2"/>
+        <v>2102</v>
+      </c>
+      <c r="DL2" s="2">
+        <f t="shared" si="2"/>
+        <v>2103</v>
+      </c>
+      <c r="DM2" s="2">
+        <f t="shared" si="2"/>
+        <v>2104</v>
+      </c>
+      <c r="DN2" s="2">
+        <f t="shared" si="2"/>
+        <v>2105</v>
+      </c>
+      <c r="DO2" s="2">
+        <f t="shared" si="2"/>
+        <v>2106</v>
+      </c>
+      <c r="DP2" s="2">
+        <f t="shared" si="2"/>
+        <v>2107</v>
+      </c>
+      <c r="DQ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2108</v>
+      </c>
+      <c r="DR2" s="2">
+        <f t="shared" si="2"/>
+        <v>2109</v>
+      </c>
+      <c r="DS2" s="2">
+        <f t="shared" si="2"/>
+        <v>2110</v>
+      </c>
+      <c r="DT2" s="2">
+        <f t="shared" si="2"/>
+        <v>2111</v>
+      </c>
+      <c r="DU2" s="2">
+        <f t="shared" si="2"/>
+        <v>2112</v>
+      </c>
+      <c r="DV2" s="2">
+        <f t="shared" si="2"/>
+        <v>2113</v>
+      </c>
+      <c r="DW2" s="2">
+        <f t="shared" si="2"/>
+        <v>2114</v>
+      </c>
+      <c r="DX2" s="2">
+        <f t="shared" si="2"/>
+        <v>2115</v>
+      </c>
+      <c r="DY2" s="2">
+        <f t="shared" si="2"/>
+        <v>2116</v>
+      </c>
+      <c r="DZ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2117</v>
+      </c>
+      <c r="EA2" s="2">
+        <f t="shared" si="2"/>
+        <v>2118</v>
+      </c>
+      <c r="EB2" s="2">
+        <f t="shared" si="2"/>
+        <v>2119</v>
+      </c>
+      <c r="EC2" s="2">
+        <f t="shared" si="2"/>
+        <v>2120</v>
+      </c>
+      <c r="ED2" s="2">
+        <f t="shared" si="2"/>
+        <v>2121</v>
+      </c>
+      <c r="EE2" s="2">
+        <f t="shared" si="2"/>
+        <v>2122</v>
+      </c>
+      <c r="EF2" s="2">
+        <f t="shared" si="2"/>
+        <v>2123</v>
+      </c>
+      <c r="EG2" s="2">
+        <f t="shared" si="2"/>
+        <v>2124</v>
+      </c>
+      <c r="EH2" s="2">
+        <f t="shared" si="2"/>
+        <v>2125</v>
+      </c>
+      <c r="EI2" s="2">
+        <f t="shared" si="2"/>
+        <v>2126</v>
+      </c>
+      <c r="EJ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2127</v>
+      </c>
+      <c r="EK2" s="2">
+        <f t="shared" si="2"/>
+        <v>2128</v>
+      </c>
+      <c r="EL2" s="2">
+        <f t="shared" si="2"/>
+        <v>2129</v>
+      </c>
+      <c r="EM2" s="2">
+        <f t="shared" si="2"/>
+        <v>2130</v>
+      </c>
+      <c r="EN2" s="2">
+        <f t="shared" si="2"/>
+        <v>2131</v>
+      </c>
+      <c r="EO2" s="2">
+        <f t="shared" si="2"/>
+        <v>2132</v>
+      </c>
+      <c r="EP2" s="2">
+        <f t="shared" si="2"/>
+        <v>2133</v>
+      </c>
+      <c r="EQ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2134</v>
+      </c>
+      <c r="ER2" s="2">
+        <f t="shared" si="2"/>
+        <v>2135</v>
+      </c>
+      <c r="ES2" s="2">
+        <f t="shared" si="2"/>
+        <v>2136</v>
+      </c>
+      <c r="ET2" s="2">
+        <f t="shared" si="2"/>
+        <v>2137</v>
+      </c>
+      <c r="EU2" s="2">
+        <f t="shared" si="2"/>
+        <v>2138</v>
+      </c>
+      <c r="EV2" s="2">
+        <f t="shared" si="2"/>
+        <v>2139</v>
+      </c>
+      <c r="EW2" s="2">
+        <f t="shared" si="2"/>
+        <v>2140</v>
+      </c>
+      <c r="EX2" s="2">
+        <f t="shared" si="2"/>
+        <v>2141</v>
+      </c>
+      <c r="EY2" s="2">
+        <f t="shared" si="2"/>
+        <v>2142</v>
+      </c>
+      <c r="EZ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2143</v>
+      </c>
+      <c r="FA2" s="2">
+        <f t="shared" si="2"/>
+        <v>2144</v>
+      </c>
+      <c r="FB2" s="2">
+        <f t="shared" si="2"/>
+        <v>2145</v>
+      </c>
+      <c r="FC2" s="2">
+        <f t="shared" si="2"/>
+        <v>2146</v>
+      </c>
+      <c r="FD2" s="2">
+        <f t="shared" si="2"/>
+        <v>2147</v>
+      </c>
+      <c r="FE2" s="2">
+        <f t="shared" si="2"/>
+        <v>2148</v>
+      </c>
+      <c r="FF2" s="2">
+        <f t="shared" si="2"/>
+        <v>2149</v>
+      </c>
+      <c r="FG2" s="2">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+      <c r="FH2" s="2">
+        <f t="shared" si="2"/>
+        <v>2151</v>
+      </c>
+      <c r="FI2" s="2">
+        <f t="shared" si="2"/>
+        <v>2152</v>
+      </c>
+      <c r="FJ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2153</v>
+      </c>
+      <c r="FK2" s="2">
+        <f t="shared" si="2"/>
+        <v>2154</v>
+      </c>
+      <c r="FL2" s="2">
+        <f t="shared" si="2"/>
+        <v>2155</v>
+      </c>
+      <c r="FM2" s="2">
+        <f t="shared" si="2"/>
+        <v>2156</v>
+      </c>
+      <c r="FN2" s="2">
+        <f t="shared" si="2"/>
+        <v>2157</v>
+      </c>
+      <c r="FO2" s="2">
+        <f t="shared" si="2"/>
+        <v>2158</v>
+      </c>
+      <c r="FP2" s="2">
+        <f t="shared" si="2"/>
+        <v>2159</v>
+      </c>
+      <c r="FQ2" s="2">
+        <f t="shared" si="2"/>
+        <v>2160</v>
+      </c>
+      <c r="FR2" s="2">
+        <f t="shared" si="2"/>
+        <v>2161</v>
+      </c>
+      <c r="FS2" s="2">
+        <f t="shared" ref="FS2:ID2" si="3">+FR2+1</f>
+        <v>2162</v>
+      </c>
+      <c r="FT2" s="2">
+        <f t="shared" si="3"/>
+        <v>2163</v>
+      </c>
+      <c r="FU2" s="2">
+        <f t="shared" si="3"/>
+        <v>2164</v>
+      </c>
+      <c r="FV2" s="2">
+        <f t="shared" si="3"/>
+        <v>2165</v>
+      </c>
+      <c r="FW2" s="2">
+        <f t="shared" si="3"/>
+        <v>2166</v>
+      </c>
+      <c r="FX2" s="2">
+        <f t="shared" si="3"/>
+        <v>2167</v>
+      </c>
+      <c r="FY2" s="2">
+        <f t="shared" si="3"/>
+        <v>2168</v>
+      </c>
+      <c r="FZ2" s="2">
+        <f t="shared" si="3"/>
+        <v>2169</v>
+      </c>
+      <c r="GA2" s="2">
+        <f t="shared" si="3"/>
+        <v>2170</v>
+      </c>
+      <c r="GB2" s="2">
+        <f t="shared" si="3"/>
+        <v>2171</v>
+      </c>
+      <c r="GC2" s="2">
+        <f t="shared" si="3"/>
+        <v>2172</v>
+      </c>
+      <c r="GD2" s="2">
+        <f t="shared" si="3"/>
+        <v>2173</v>
+      </c>
+      <c r="GE2" s="2">
+        <f t="shared" si="3"/>
+        <v>2174</v>
+      </c>
+      <c r="GF2" s="2">
+        <f t="shared" si="3"/>
+        <v>2175</v>
+      </c>
+      <c r="GG2" s="2">
+        <f t="shared" si="3"/>
+        <v>2176</v>
+      </c>
+      <c r="GH2" s="2">
+        <f t="shared" si="3"/>
+        <v>2177</v>
+      </c>
+      <c r="GI2" s="2">
+        <f t="shared" si="3"/>
+        <v>2178</v>
+      </c>
+      <c r="GJ2" s="2">
+        <f t="shared" si="3"/>
+        <v>2179</v>
+      </c>
+      <c r="GK2" s="2">
+        <f t="shared" si="3"/>
+        <v>2180</v>
+      </c>
+      <c r="GL2" s="2">
+        <f t="shared" si="3"/>
+        <v>2181</v>
+      </c>
+      <c r="GM2" s="2">
+        <f t="shared" si="3"/>
+        <v>2182</v>
+      </c>
+      <c r="GN2" s="2">
+        <f t="shared" si="3"/>
+        <v>2183</v>
+      </c>
+      <c r="GO2" s="2">
+        <f t="shared" si="3"/>
+        <v>2184</v>
+      </c>
+      <c r="GP2" s="2">
+        <f t="shared" si="3"/>
+        <v>2185</v>
+      </c>
+      <c r="GQ2" s="2">
+        <f t="shared" si="3"/>
+        <v>2186</v>
+      </c>
+      <c r="GR2" s="2">
+        <f t="shared" si="3"/>
+        <v>2187</v>
+      </c>
+      <c r="GS2" s="2">
+        <f t="shared" si="3"/>
+        <v>2188</v>
+      </c>
+      <c r="GT2" s="2">
+        <f t="shared" si="3"/>
+        <v>2189</v>
+      </c>
+      <c r="GU2" s="2">
+        <f t="shared" si="3"/>
+        <v>2190</v>
+      </c>
+      <c r="GV2" s="2">
+        <f t="shared" si="3"/>
+        <v>2191</v>
+      </c>
+      <c r="GW2" s="2">
+        <f t="shared" si="3"/>
+        <v>2192</v>
+      </c>
+      <c r="GX2" s="2">
+        <f t="shared" si="3"/>
+        <v>2193</v>
+      </c>
+      <c r="GY2" s="2">
+        <f t="shared" si="3"/>
+        <v>2194</v>
+      </c>
+      <c r="GZ2" s="2">
+        <f t="shared" si="3"/>
+        <v>2195</v>
+      </c>
+      <c r="HA2" s="2">
+        <f t="shared" si="3"/>
+        <v>2196</v>
+      </c>
+      <c r="HB2" s="2">
+        <f t="shared" si="3"/>
+        <v>2197</v>
+      </c>
+      <c r="HC2" s="2">
+        <f t="shared" si="3"/>
+        <v>2198</v>
+      </c>
+      <c r="HD2" s="2">
+        <f t="shared" si="3"/>
+        <v>2199</v>
+      </c>
+      <c r="HE2" s="2">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+      <c r="HF2" s="2">
+        <f t="shared" si="3"/>
+        <v>2201</v>
+      </c>
+      <c r="HG2" s="2">
+        <f t="shared" si="3"/>
+        <v>2202</v>
+      </c>
+      <c r="HH2" s="2">
+        <f t="shared" si="3"/>
+        <v>2203</v>
+      </c>
+      <c r="HI2" s="2">
+        <f t="shared" si="3"/>
+        <v>2204</v>
+      </c>
+      <c r="HJ2" s="2">
+        <f t="shared" si="3"/>
+        <v>2205</v>
+      </c>
+      <c r="HK2" s="2">
+        <f t="shared" si="3"/>
+        <v>2206</v>
+      </c>
+      <c r="HL2" s="2">
+        <f t="shared" si="3"/>
+        <v>2207</v>
+      </c>
+      <c r="HM2" s="2">
+        <f t="shared" si="3"/>
+        <v>2208</v>
+      </c>
+      <c r="HN2" s="2">
+        <f t="shared" si="3"/>
+        <v>2209</v>
+      </c>
+      <c r="HO2" s="2">
+        <f t="shared" si="3"/>
+        <v>2210</v>
+      </c>
+      <c r="HP2" s="2">
+        <f t="shared" si="3"/>
+        <v>2211</v>
+      </c>
+      <c r="HQ2" s="2">
+        <f t="shared" si="3"/>
+        <v>2212</v>
+      </c>
+      <c r="HR2" s="2">
+        <f t="shared" si="3"/>
+        <v>2213</v>
+      </c>
+      <c r="HS2" s="2">
+        <f t="shared" si="3"/>
+        <v>2214</v>
+      </c>
+      <c r="HT2" s="2">
+        <f t="shared" si="3"/>
+        <v>2215</v>
+      </c>
+      <c r="HU2" s="2">
+        <f t="shared" si="3"/>
+        <v>2216</v>
+      </c>
+      <c r="HV2" s="2">
+        <f t="shared" si="3"/>
+        <v>2217</v>
+      </c>
+      <c r="HW2" s="2">
+        <f t="shared" si="3"/>
+        <v>2218</v>
+      </c>
+      <c r="HX2" s="2">
+        <f t="shared" si="3"/>
+        <v>2219</v>
+      </c>
+      <c r="HY2" s="2">
+        <f t="shared" si="3"/>
+        <v>2220</v>
+      </c>
+      <c r="HZ2" s="2">
+        <f t="shared" si="3"/>
+        <v>2221</v>
+      </c>
+      <c r="IA2" s="2">
+        <f t="shared" si="3"/>
+        <v>2222</v>
+      </c>
+      <c r="IB2" s="2">
+        <f t="shared" si="3"/>
+        <v>2223</v>
+      </c>
+      <c r="IC2" s="2">
+        <f t="shared" si="3"/>
+        <v>2224</v>
+      </c>
+      <c r="ID2" s="2">
+        <f t="shared" si="3"/>
+        <v>2225</v>
+      </c>
+      <c r="IE2" s="2">
+        <f t="shared" ref="IE2:IZ2" si="4">+ID2+1</f>
+        <v>2226</v>
+      </c>
+      <c r="IF2" s="2">
+        <f t="shared" si="4"/>
+        <v>2227</v>
+      </c>
+      <c r="IG2" s="2">
+        <f t="shared" si="4"/>
+        <v>2228</v>
+      </c>
+      <c r="IH2" s="2">
+        <f t="shared" si="4"/>
+        <v>2229</v>
+      </c>
+      <c r="II2" s="2">
+        <f t="shared" si="4"/>
+        <v>2230</v>
+      </c>
+      <c r="IJ2" s="2">
+        <f t="shared" si="4"/>
+        <v>2231</v>
+      </c>
+      <c r="IK2" s="2">
+        <f t="shared" si="4"/>
+        <v>2232</v>
+      </c>
+      <c r="IL2" s="2">
+        <f t="shared" si="4"/>
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:246" s="2" customFormat="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>80</v>
@@ -1358,7 +2197,7 @@
         <v>398.1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="2" customFormat="1">
+    <row r="4" spans="1:246" s="2" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>81</v>
@@ -1387,7 +2226,7 @@
         <v>339.6</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="2" customFormat="1">
+    <row r="5" spans="1:246" s="2" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>82</v>
@@ -1416,7 +2255,7 @@
         <v>287.8</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="2" customFormat="1">
+    <row r="6" spans="1:246" s="2" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>83</v>
@@ -1445,7 +2284,7 @@
         <v>201.9</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:246">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1513,8 +2352,11 @@
         <v>1227.4000000000001</v>
       </c>
       <c r="V7" s="1">
-        <f>+R7*1.05</f>
-        <v>1250.4449999999997</v>
+        <f>+AJ7-SUM(S7:U7)</f>
+        <v>1245.5999999999999</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1236.0999999999999</v>
       </c>
       <c r="AE7" s="1">
         <v>3488.9</v>
@@ -1532,47 +2374,46 @@
         <v>4535.5</v>
       </c>
       <c r="AJ7" s="1">
-        <f>SUM(S7:V7)</f>
-        <v>4879.4449999999997</v>
+        <v>4874.6000000000004</v>
       </c>
       <c r="AK7" s="1">
-        <f>+AJ7*1.06</f>
-        <v>5172.2116999999998</v>
+        <f>AVERAGE(5075,5225)</f>
+        <v>5150</v>
       </c>
       <c r="AL7" s="1">
-        <f t="shared" ref="AL7:AS7" si="1">+AK7*1.06</f>
-        <v>5482.5444020000004</v>
+        <f>+AK7*1.06</f>
+        <v>5459</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="1"/>
-        <v>5811.4970661200005</v>
+        <f>+AL7*1.06</f>
+        <v>5786.54</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="1"/>
-        <v>6160.1868900872005</v>
+        <f>+AM7*1.06</f>
+        <v>6133.7323999999999</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="1"/>
-        <v>6529.7981034924333</v>
+        <f t="shared" ref="AM7:AS7" si="5">+AN7*1.06</f>
+        <v>6501.7563440000004</v>
       </c>
       <c r="AP7" s="1">
-        <f t="shared" si="1"/>
-        <v>6921.58598970198</v>
+        <f t="shared" si="5"/>
+        <v>6891.8617246400008</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="1"/>
-        <v>7336.881149084099</v>
+        <f t="shared" si="5"/>
+        <v>7305.3734281184015</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="1"/>
-        <v>7777.0940180291454</v>
+        <f t="shared" si="5"/>
+        <v>7743.6958338055056</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="1"/>
-        <v>8243.719659110895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+        <f t="shared" si="5"/>
+        <v>8208.3175838338357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:246">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +2479,11 @@
         <v>921</v>
       </c>
       <c r="V8" s="1">
-        <f>+V$7*(R8/R$7)</f>
-        <v>917.7</v>
+        <f>+AJ8-SUM(S8:U8)</f>
+        <v>922</v>
+      </c>
+      <c r="W8" s="1">
+        <v>927.2</v>
       </c>
       <c r="AE8" s="1">
         <v>2703.3</v>
@@ -1657,47 +2501,46 @@
         <v>3461.9</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" ref="AJ8:AJ22" si="2">SUM(S8:V8)</f>
-        <v>3702.8</v>
+        <v>3707.1</v>
       </c>
       <c r="AK8" s="1">
         <f>+AJ8*1.054</f>
-        <v>3902.7512000000002</v>
+        <v>3907.2834000000003</v>
       </c>
       <c r="AL8" s="1">
-        <f t="shared" ref="AL8:AS8" si="3">+AK8*1.054</f>
-        <v>4113.4997648000008</v>
+        <f>+AL7*(AK8/AK7)</f>
+        <v>4141.7204040000006</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="3"/>
-        <v>4335.6287520992009</v>
+        <f t="shared" ref="AM8:AS8" si="6">+AM7*(AL8/AL7)</f>
+        <v>4390.2236282400008</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="3"/>
-        <v>4569.7527047125577</v>
+        <f t="shared" si="6"/>
+        <v>4653.6370459344007</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="3"/>
-        <v>4816.5193507670365</v>
+        <f t="shared" si="6"/>
+        <v>4932.855268690465</v>
       </c>
       <c r="AP8" s="1">
-        <f t="shared" si="3"/>
-        <v>5076.6113957084563</v>
+        <f t="shared" si="6"/>
+        <v>5228.8265848118936</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" si="3"/>
-        <v>5350.7484110767127</v>
+        <f t="shared" si="6"/>
+        <v>5542.5561799006073</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="3"/>
-        <v>5639.6888252748558</v>
+        <f t="shared" si="6"/>
+        <v>5875.109550694644</v>
       </c>
       <c r="AS8" s="1">
-        <f t="shared" si="3"/>
-        <v>5944.2320218396981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+        <f t="shared" si="6"/>
+        <v>6227.6161237363222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:246">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1763,8 +2606,11 @@
         <v>170</v>
       </c>
       <c r="V9" s="1">
-        <f>+V$7*(R9/R$7)</f>
-        <v>175.45499999999993</v>
+        <f>+AJ9-SUM(S9:U9)</f>
+        <v>170.5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>200.6</v>
       </c>
       <c r="AE9" s="1">
         <v>509.2</v>
@@ -1782,129 +2628,132 @@
         <v>687</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="2"/>
-        <v>693.05499999999995</v>
+        <v>688.1</v>
       </c>
       <c r="AK9" s="1">
         <f>+AK7*(AJ9/AJ7)</f>
-        <v>734.63830000000007</v>
+        <v>726.975546711525</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" ref="AL9:AS9" si="4">+AL7*(AK9/AK7)</f>
-        <v>778.71659800000009</v>
+        <f t="shared" ref="AL9:AS9" si="7">+AL7*(AK9/AK7)</f>
+        <v>770.59407951421656</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="4"/>
-        <v>825.43959388000007</v>
+        <f t="shared" si="7"/>
+        <v>816.82972428506946</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="4"/>
-        <v>874.96596951280014</v>
+        <f t="shared" si="7"/>
+        <v>865.83950774217362</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="4"/>
-        <v>927.46392768356827</v>
+        <f t="shared" si="7"/>
+        <v>917.78987820670409</v>
       </c>
       <c r="AP9" s="1">
-        <f t="shared" si="4"/>
-        <v>983.11176334458241</v>
+        <f t="shared" si="7"/>
+        <v>972.85727089910642</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" si="4"/>
-        <v>1042.0984691452575</v>
+        <f t="shared" si="7"/>
+        <v>1031.2287071530529</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="4"/>
-        <v>1104.6243772939729</v>
+        <f t="shared" si="7"/>
+        <v>1093.102429582236</v>
       </c>
       <c r="AS9" s="1">
-        <f t="shared" si="4"/>
-        <v>1170.9018399316114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+        <f t="shared" si="7"/>
+        <v>1158.6885753571703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:246">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:U10" si="5">+SUM(C8:C9)</f>
+        <f t="shared" ref="C10:U10" si="8">+SUM(C8:C9)</f>
         <v>844.40000000000009</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>863.1</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>869.4</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>860.1</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>841.5</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>823.5</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>884.3</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>912.50000000000034</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>913.09999999999991</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>975</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>999.5</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>977.90000000000032</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1011.3000000000001</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1035</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1061.5</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1041.0999999999999</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1097.3</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1114.3999999999999</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1091</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10:V20" si="6">+R10</f>
+        <f t="shared" ref="V10:V20" si="9">+R10</f>
         <v>1041.0999999999999</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" ref="W10" si="10">+SUM(W8:W9)</f>
+        <v>1127.8</v>
       </c>
       <c r="AE10" s="1">
         <f>+SUM(AE8:AE9)</f>
@@ -1927,47 +2776,47 @@
         <v>4148.8999999999996</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="2"/>
-        <v>4343.7999999999993</v>
+        <f>+SUM(AJ8:AJ9)</f>
+        <v>4395.2</v>
       </c>
       <c r="AK10" s="1">
         <f>+SUM(AK8:AK9)</f>
-        <v>4637.3895000000002</v>
+        <v>4634.2589467115249</v>
       </c>
       <c r="AL10" s="1">
-        <f t="shared" ref="AL10:AS10" si="7">+SUM(AL8:AL9)</f>
-        <v>4892.2163628000008</v>
+        <f t="shared" ref="AL10:AS10" si="11">+SUM(AL8:AL9)</f>
+        <v>4912.3144835142175</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="7"/>
-        <v>5161.0683459792008</v>
+        <f t="shared" si="11"/>
+        <v>5207.0533525250703</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="7"/>
-        <v>5444.718674225358</v>
+        <f t="shared" si="11"/>
+        <v>5519.4765536765744</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="7"/>
-        <v>5743.9832784506052</v>
+        <f t="shared" si="11"/>
+        <v>5850.6451468971691</v>
       </c>
       <c r="AP10" s="1">
-        <f t="shared" si="7"/>
-        <v>6059.7231590530391</v>
+        <f t="shared" si="11"/>
+        <v>6201.6838557110004</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="7"/>
-        <v>6392.8468802219704</v>
+        <f t="shared" si="11"/>
+        <v>6573.78488705366</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="7"/>
-        <v>6744.3132025688283</v>
+        <f t="shared" si="11"/>
+        <v>6968.2119802768802</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="7"/>
-        <v>7115.13386177131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+        <f t="shared" si="11"/>
+        <v>7386.3046990934927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:246">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2033,8 +2882,11 @@
         <v>1.3</v>
       </c>
       <c r="V11" s="1">
-        <f>+V$7*(R11/R$7)</f>
-        <v>-7.2450000000000019</v>
+        <f>+AJ11-SUM(S11:U11)</f>
+        <v>-51</v>
+      </c>
+      <c r="W11" s="1">
+        <v>12.6</v>
       </c>
       <c r="AE11" s="1">
         <v>-1.7</v>
@@ -2052,129 +2904,132 @@
         <v>-25.3</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="2"/>
-        <v>-10.445000000000004</v>
+        <v>-54.2</v>
       </c>
       <c r="AK11" s="1">
         <f>+AK10*(AJ11/AJ10)</f>
-        <v>-11.150958452852349</v>
+        <v>-57.147987557281731</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" ref="AL11:AS11" si="8">+AL10*(AK11/AK10)</f>
-        <v>-11.763709173867591</v>
+        <f t="shared" ref="AL11:AS11" si="12">+AL10*(AK11/AK10)</f>
+        <v>-60.576866810718649</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="8"/>
-        <v>-12.410184371691328</v>
+        <f t="shared" si="12"/>
+        <v>-64.211478819361758</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="8"/>
-        <v>-13.09224332434364</v>
+        <f t="shared" si="12"/>
+        <v>-68.064167548523457</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="8"/>
-        <v>-13.811848000234036</v>
+        <f t="shared" si="12"/>
+        <v>-72.148017601434873</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="8"/>
-        <v>-14.571068740805064</v>
+        <f t="shared" si="12"/>
+        <v>-76.476898657520977</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="8"/>
-        <v>-15.372090258280428</v>
+        <f t="shared" si="12"/>
+        <v>-81.065512576972225</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="8"/>
-        <v>-16.217217966027775</v>
+        <f t="shared" si="12"/>
+        <v>-85.929443331590576</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="8"/>
-        <v>-17.108884660021499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+        <f t="shared" si="12"/>
+        <v>-91.085209931486006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:246">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:U12" si="9">+C7-C10+C11</f>
+        <f t="shared" ref="C12:U12" si="13">+C7-C10+C11</f>
         <v>58.399999999999906</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>52.59999999999998</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>73.299999999999699</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26.199999999999953</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>76.400000000000048</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>111.89999999999957</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>61.700000000000138</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>73.299999999999955</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>74.2</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>145.49999999999949</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>62.399999999999935</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>96.500000000000085</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>59.500000000000043</v>
       </c>
       <c r="R12" s="1">
+        <f t="shared" si="13"/>
+        <v>142.89999999999972</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="13"/>
+        <v>79.800000000000139</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="13"/>
+        <v>105.60000000000018</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="13"/>
+        <v>137.7000000000001</v>
+      </c>
+      <c r="V12" s="1">
         <f t="shared" si="9"/>
         <v>142.89999999999972</v>
       </c>
-      <c r="S12" s="1">
-        <f t="shared" si="9"/>
-        <v>79.800000000000139</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="9"/>
-        <v>105.60000000000018</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="9"/>
-        <v>137.7000000000001</v>
-      </c>
-      <c r="V12" s="1">
-        <f t="shared" si="6"/>
-        <v>142.89999999999972</v>
+      <c r="W12" s="1">
+        <f t="shared" ref="W12" si="14">+W7-W10+W11</f>
+        <v>120.89999999999995</v>
       </c>
       <c r="AE12" s="1">
         <f>+AE7-AE10+AE11</f>
@@ -2197,47 +3052,47 @@
         <v>361.30000000000035</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="2"/>
-        <v>466.00000000000011</v>
+        <f>+AJ7-AJ10+AJ11</f>
+        <v>425.20000000000056</v>
       </c>
       <c r="AK12" s="1">
         <f>+AK7-AK10+AK11</f>
-        <v>523.67124154714725</v>
+        <v>458.59306573119335</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" ref="AL12:AS12" si="10">+AL7-AL10+AL11</f>
-        <v>578.5643300261321</v>
+        <f t="shared" ref="AL12:AS12" si="15">+AL7-AL10+AL11</f>
+        <v>486.10864967506387</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="10"/>
-        <v>638.01853576910833</v>
+        <f t="shared" si="15"/>
+        <v>515.27516865556788</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="10"/>
-        <v>702.37597253749891</v>
+        <f t="shared" si="15"/>
+        <v>546.19167877490202</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="10"/>
-        <v>772.00297704159402</v>
+        <f t="shared" si="15"/>
+        <v>578.96317950139644</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="10"/>
-        <v>847.29176190813575</v>
+        <f t="shared" si="15"/>
+        <v>613.70097027147938</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="10"/>
-        <v>928.66217860384813</v>
+        <f t="shared" si="15"/>
+        <v>650.52302848776935</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="10"/>
-        <v>1016.5635974942894</v>
+        <f t="shared" si="15"/>
+        <v>689.55441019703471</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="10"/>
-        <v>1111.4769126795636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+        <f t="shared" si="15"/>
+        <v>730.92767480885698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:246">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2303,8 +3158,11 @@
         <v>-53.8</v>
       </c>
       <c r="V13" s="1">
-        <f>+V$7*(R13/R$7)</f>
-        <v>-45.990000000000016</v>
+        <f>+AJ13-SUM(S13:U13)</f>
+        <v>-52.300000000000011</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-55.8</v>
       </c>
       <c r="AE13" s="1">
         <v>-66.7</v>
@@ -2321,48 +3179,47 @@
       <c r="AI13" s="1">
         <v>-138.80000000000001</v>
       </c>
-      <c r="AJ13" s="6">
-        <f>+SUM(S13:V13)</f>
-        <v>-197.49</v>
+      <c r="AJ13" s="10">
+        <v>-203.8</v>
       </c>
       <c r="AK13" s="6">
         <f>+AJ13</f>
-        <v>-197.49</v>
+        <v>-203.8</v>
       </c>
       <c r="AL13" s="6">
-        <f t="shared" ref="AL13:AS13" si="11">+AK13</f>
-        <v>-197.49</v>
+        <f t="shared" ref="AL13:AS13" si="16">+AK13</f>
+        <v>-203.8</v>
       </c>
       <c r="AM13" s="6">
-        <f t="shared" si="11"/>
-        <v>-197.49</v>
+        <f t="shared" si="16"/>
+        <v>-203.8</v>
       </c>
       <c r="AN13" s="6">
-        <f t="shared" si="11"/>
-        <v>-197.49</v>
+        <f t="shared" si="16"/>
+        <v>-203.8</v>
       </c>
       <c r="AO13" s="6">
-        <f t="shared" si="11"/>
-        <v>-197.49</v>
+        <f t="shared" si="16"/>
+        <v>-203.8</v>
       </c>
       <c r="AP13" s="6">
-        <f t="shared" si="11"/>
-        <v>-197.49</v>
+        <f t="shared" si="16"/>
+        <v>-203.8</v>
       </c>
       <c r="AQ13" s="6">
-        <f t="shared" si="11"/>
-        <v>-197.49</v>
+        <f t="shared" si="16"/>
+        <v>-203.8</v>
       </c>
       <c r="AR13" s="6">
-        <f t="shared" si="11"/>
-        <v>-197.49</v>
+        <f t="shared" si="16"/>
+        <v>-203.8</v>
       </c>
       <c r="AS13" s="6">
-        <f t="shared" si="11"/>
-        <v>-197.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+        <f t="shared" si="16"/>
+        <v>-203.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:246">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2428,8 +3285,11 @@
         <v>2.9</v>
       </c>
       <c r="V14" s="1">
-        <f>+V$7*(R14/R$7)</f>
-        <v>-4.9349999999999987</v>
+        <f>+AJ14-SUM(S14:U14)</f>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="W14" s="1">
+        <v>13.3</v>
       </c>
       <c r="AE14" s="1">
         <v>-38.799999999999997</v>
@@ -2447,129 +3307,132 @@
         <v>3.7</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="2"/>
-        <v>6.7650000000000023</v>
+        <v>14.4</v>
       </c>
       <c r="AK14" s="1">
         <f>+AK$12*(AJ14/AJ$12)</f>
-        <v>7.6022230666662045</v>
+        <v>15.53090344903381</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" ref="AL14:AS14" si="12">+AL$12*(AK14/AK$12)</f>
-        <v>8.3991152202291506</v>
+        <f t="shared" ref="AL14:AS14" si="17">+AL$12*(AK14/AK$12)</f>
+        <v>16.4627576559758</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="12"/>
-        <v>9.2622218765622701</v>
+        <f t="shared" si="17"/>
+        <v>17.450523115334356</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="12"/>
-        <v>10.19650955840382</v>
+        <f t="shared" si="17"/>
+        <v>18.497554502254417</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="12"/>
-        <v>11.207296437095243</v>
+        <f t="shared" si="17"/>
+        <v>19.607407772389692</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="12"/>
-        <v>12.300276328988279</v>
+        <f t="shared" si="17"/>
+        <v>20.783852238733047</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="12"/>
-        <v>13.481544288100928</v>
+        <f t="shared" si="17"/>
+        <v>22.030883373057069</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="12"/>
-        <v>14.757623899246497</v>
+        <f t="shared" si="17"/>
+        <v>23.352736375440468</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="12"/>
-        <v>16.135496382569201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+        <f t="shared" si="17"/>
+        <v>24.753900557966901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:246">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:U15" si="13">+SUM(C12:C14)</f>
+        <f t="shared" ref="C15:U15" si="18">+SUM(C12:C14)</f>
         <v>24.199999999999907</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>26.799999999999979</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21.8</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>20.699999999999694</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-9.4000000000000465</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-27.2</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>36.500000000000043</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>79.399999999999579</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>29.000000000000142</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>49.699999999999953</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>45.9</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>110.89999999999948</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>33.199999999999939</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>67.500000000000085</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>31.100000000000041</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>94.399999999999707</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>37.900000000000141</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>58.600000000000179</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>86.800000000000111</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>94.399999999999707</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" ref="W15" si="19">+SUM(W12:W14)</f>
+        <v>78.399999999999949</v>
       </c>
       <c r="AE15" s="1">
         <f>+SUM(AE12:AE14)-126.7</f>
@@ -2592,47 +3455,47 @@
         <v>226.20000000000033</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="2"/>
-        <v>277.7000000000001</v>
+        <f>+SUM(AJ12:AJ14)</f>
+        <v>235.80000000000055</v>
       </c>
       <c r="AK15" s="1">
         <f>+SUM(AK12:AK14)</f>
-        <v>333.78346461381346</v>
+        <v>270.32396918022715</v>
       </c>
       <c r="AL15" s="1">
-        <f t="shared" ref="AL15:AS15" si="14">+SUM(AL12:AL14)</f>
-        <v>389.47344524636122</v>
+        <f t="shared" ref="AL15:AS15" si="20">+SUM(AL12:AL14)</f>
+        <v>298.77140733103965</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="14"/>
-        <v>449.79075764567057</v>
+        <f t="shared" si="20"/>
+        <v>328.92569177090223</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" si="14"/>
-        <v>515.08248209590272</v>
+        <f t="shared" si="20"/>
+        <v>360.88923327715645</v>
       </c>
       <c r="AO15" s="1">
-        <f t="shared" si="14"/>
-        <v>585.72027347868925</v>
+        <f t="shared" si="20"/>
+        <v>394.77058727378613</v>
       </c>
       <c r="AP15" s="1">
-        <f t="shared" si="14"/>
-        <v>662.10203823712402</v>
+        <f t="shared" si="20"/>
+        <v>430.68482251021243</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="14"/>
-        <v>744.65372289194909</v>
+        <f t="shared" si="20"/>
+        <v>468.75391186082641</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="14"/>
-        <v>833.83122139353588</v>
+        <f t="shared" si="20"/>
+        <v>509.10714657247519</v>
       </c>
       <c r="AS15" s="1">
-        <f t="shared" si="14"/>
-        <v>930.12240906213276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
+        <f t="shared" si="20"/>
+        <v>551.88157536682377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:246">
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2698,8 +3561,11 @@
         <v>37.299999999999997</v>
       </c>
       <c r="V16" s="1">
-        <f>+V$7*(R16/R$7)</f>
-        <v>46.935000000000002</v>
+        <f>+AJ16-SUM(S16:U16)</f>
+        <v>58.199999999999989</v>
+      </c>
+      <c r="W16" s="1">
+        <v>26.2</v>
       </c>
       <c r="AE16" s="1">
         <v>70</v>
@@ -2717,129 +3583,132 @@
         <v>41.4</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="2"/>
-        <v>127.935</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="AK16" s="1">
         <f>+AK$15*(AJ16/AJ$15)</f>
-        <v>153.7723714273252</v>
+        <v>159.58056195881056</v>
       </c>
       <c r="AL16" s="1">
         <f>+AL$15*(AK16/AK$15)</f>
-        <v>179.42846675402666</v>
+        <v>176.37396056183471</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" ref="AM16:AS16" si="15">+AM$15*(AL16/AL$15)</f>
-        <v>207.21635066402175</v>
+        <f t="shared" ref="AM16:AS16" si="21">+AM$15*(AL16/AL$15)</f>
+        <v>194.17496308104106</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="15"/>
-        <v>237.29592130694738</v>
+        <f t="shared" si="21"/>
+        <v>213.04402575139974</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="15"/>
-        <v>269.83839822648929</v>
+        <f t="shared" si="21"/>
+        <v>233.04523218198008</v>
       </c>
       <c r="AP16" s="1">
-        <f t="shared" si="15"/>
-        <v>305.02709492929932</v>
+        <f t="shared" si="21"/>
+        <v>254.24651099839451</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="15"/>
-        <v>343.05824284544997</v>
+        <f t="shared" si="21"/>
+        <v>276.71986654379509</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="15"/>
-        <v>384.14187003594509</v>
+        <f t="shared" si="21"/>
+        <v>300.54162342191847</v>
       </c>
       <c r="AS16" s="1">
-        <f t="shared" si="15"/>
-        <v>428.50273821881126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:260">
+        <f t="shared" si="21"/>
+        <v>325.79268571272979</v>
+      </c>
+    </row>
+    <row r="17" spans="2:246">
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:U17" si="16">+C15-C16</f>
+        <f t="shared" ref="C17:U17" si="22">+C15-C16</f>
         <v>14.499999999999908</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>14.09999999999998</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7.1000000000000014</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-3.2000000000003119</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2.7999999999999527</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>16.000000000000004</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-22.399999999999956</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>26.299999999999571</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>15.400000000000142</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>26.999999999999954</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>49.799999999999478</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>74.29999999999994</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>38.200000000000088</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>22.600000000000041</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>49.699999999999704</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>17.60000000000014</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>35.20000000000018</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>49.500000000000114</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="6"/>
-        <v>49.699999999999704</v>
+        <f>+AJ17-SUM(S17:U17)</f>
+        <v>-5.6999999999998749</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" ref="W17" si="23">+W15-W16</f>
+        <v>52.199999999999946</v>
       </c>
       <c r="AE17" s="1">
         <f>+AE15-AE16</f>
@@ -2862,129 +3731,133 @@
         <v>184.80000000000032</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="2"/>
-        <v>152.00000000000014</v>
+        <f>+AJ15-AJ16</f>
+        <v>96.600000000000563</v>
       </c>
       <c r="AK17" s="1">
         <f>+AK15-AK16</f>
-        <v>180.01109318648827</v>
+        <v>110.74340722141659</v>
       </c>
       <c r="AL17" s="1">
-        <f t="shared" ref="AL17:AS17" si="17">+AL15-AL16</f>
-        <v>210.04497849233456</v>
+        <f t="shared" ref="AL17:AS17" si="24">+AL15-AL16</f>
+        <v>122.39744676920495</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="17"/>
-        <v>242.57440698164882</v>
+        <f t="shared" si="24"/>
+        <v>134.75072868986118</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="17"/>
-        <v>277.78656078895534</v>
+        <f t="shared" si="24"/>
+        <v>147.84520752575671</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="17"/>
-        <v>315.88187525219996</v>
+        <f t="shared" si="24"/>
+        <v>161.72535509180605</v>
       </c>
       <c r="AP17" s="1">
-        <f t="shared" si="17"/>
-        <v>357.0749433078247</v>
+        <f t="shared" si="24"/>
+        <v>176.43831151181791</v>
       </c>
       <c r="AQ17" s="1">
-        <f t="shared" si="17"/>
-        <v>401.59548004649912</v>
+        <f t="shared" si="24"/>
+        <v>192.03404531703131</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="17"/>
-        <v>449.68935135759079</v>
+        <f t="shared" si="24"/>
+        <v>208.56552315055671</v>
       </c>
       <c r="AS17" s="1">
-        <f t="shared" si="17"/>
-        <v>501.6196708433215</v>
-      </c>
-    </row>
-    <row r="18" spans="2:260">
+        <f t="shared" si="24"/>
+        <v>226.08888965409398</v>
+      </c>
+    </row>
+    <row r="18" spans="2:246">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:U18" si="18">+SUM(C17:C17)</f>
+        <f t="shared" ref="C18:U18" si="25">+SUM(C17:C17)</f>
         <v>14.499999999999908</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>14.09999999999998</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>7.1000000000000014</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-3.2000000000003119</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>2.7999999999999527</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>16.000000000000004</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-22.399999999999956</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>26.299999999999571</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>15.400000000000142</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>26.999999999999954</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>49.799999999999478</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>74.29999999999994</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>38.200000000000088</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>22.600000000000041</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>49.699999999999704</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17.60000000000014</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>35.20000000000018</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>49.500000000000114</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>49.699999999999704</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" ref="W18" si="26">+SUM(W17:W17)</f>
+        <v>52.199999999999946</v>
       </c>
       <c r="AE18" s="1">
         <f>+SUM(AE17:AE17)</f>
@@ -3007,47 +3880,46 @@
         <v>184.80000000000032</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="2"/>
-        <v>152.00000000000014</v>
+        <v>1.7</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" ref="AK18:AS18" si="19">+SUM(AK17:AK17)</f>
-        <v>180.01109318648827</v>
+        <f t="shared" ref="AK18:AS18" si="27">+SUM(AK17:AK17)</f>
+        <v>110.74340722141659</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="19"/>
-        <v>210.04497849233456</v>
+        <f t="shared" si="27"/>
+        <v>122.39744676920495</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" si="19"/>
-        <v>242.57440698164882</v>
+        <f t="shared" si="27"/>
+        <v>134.75072868986118</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="19"/>
-        <v>277.78656078895534</v>
+        <f t="shared" si="27"/>
+        <v>147.84520752575671</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="19"/>
-        <v>315.88187525219996</v>
+        <f t="shared" si="27"/>
+        <v>161.72535509180605</v>
       </c>
       <c r="AP18" s="1">
-        <f t="shared" si="19"/>
-        <v>357.0749433078247</v>
+        <f t="shared" si="27"/>
+        <v>176.43831151181791</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="19"/>
-        <v>401.59548004649912</v>
+        <f t="shared" si="27"/>
+        <v>192.03404531703131</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="19"/>
-        <v>449.68935135759079</v>
+        <f t="shared" si="27"/>
+        <v>208.56552315055671</v>
       </c>
       <c r="AS18" s="1">
-        <f t="shared" si="19"/>
-        <v>501.6196708433215</v>
-      </c>
-    </row>
-    <row r="19" spans="2:260">
+        <f t="shared" si="27"/>
+        <v>226.08888965409398</v>
+      </c>
+    </row>
+    <row r="19" spans="2:246">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3113,8 +3985,11 @@
         <v>3.8</v>
       </c>
       <c r="V19" s="1">
-        <f>+V$7*(R19/R$7)</f>
-        <v>2.1</v>
+        <f>+AJ19-SUM(S19:U19)</f>
+        <v>-10.1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>5.8</v>
@@ -3131,90 +4006,97 @@
       <c r="AI19" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="20" spans="2:260" s="3" customFormat="1">
+      <c r="AJ19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:246" s="3" customFormat="1">
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:U20" si="20">+C18-C19</f>
+        <f t="shared" ref="C20:U20" si="28">+C18-C19</f>
         <v>13.699999999999907</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>12.59999999999998</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>7.5000000000000018</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>-5.5000000000003126</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>1.7999999999999527</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>13.700000000000003</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>-23.799999999999955</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>25.099999999999568</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>12.700000000000141</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>23.999999999999954</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>47.39999999999948</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>71.399999999999935</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>35.200000000000088</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>19.200000000000042</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>47.699999999999704</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>14.300000000000139</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>32.20000000000018</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>45.700000000000117</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>47.699999999999704</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" ref="W20" si="29">+W18-W19</f>
+        <v>52.199999999999946</v>
       </c>
       <c r="AE20" s="3">
         <f>+AE18-AE19</f>
@@ -3237,907 +4119,851 @@
         <v>173.50000000000031</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="2"/>
-        <v>139.90000000000015</v>
+        <f>+AJ17+AJ18</f>
+        <v>98.300000000000566</v>
       </c>
       <c r="AK20" s="3">
         <f>+AK18-AK19</f>
-        <v>180.01109318648827</v>
+        <v>110.74340722141659</v>
       </c>
       <c r="AL20" s="3">
-        <f t="shared" ref="AL20:AS20" si="21">+AL18-AL19</f>
-        <v>210.04497849233456</v>
+        <f t="shared" ref="AL20:AS20" si="30">+AL18-AL19</f>
+        <v>122.39744676920495</v>
       </c>
       <c r="AM20" s="3">
-        <f t="shared" si="21"/>
-        <v>242.57440698164882</v>
+        <f t="shared" si="30"/>
+        <v>134.75072868986118</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" si="21"/>
-        <v>277.78656078895534</v>
+        <f t="shared" si="30"/>
+        <v>147.84520752575671</v>
       </c>
       <c r="AO20" s="3">
-        <f t="shared" si="21"/>
-        <v>315.88187525219996</v>
+        <f t="shared" si="30"/>
+        <v>161.72535509180605</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" si="21"/>
-        <v>357.0749433078247</v>
+        <f t="shared" si="30"/>
+        <v>176.43831151181791</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="21"/>
-        <v>401.59548004649912</v>
+        <f t="shared" si="30"/>
+        <v>192.03404531703131</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="21"/>
-        <v>449.68935135759079</v>
+        <f t="shared" si="30"/>
+        <v>208.56552315055671</v>
       </c>
       <c r="AS20" s="3">
-        <f t="shared" si="21"/>
-        <v>501.6196708433215</v>
+        <f t="shared" si="30"/>
+        <v>226.08888965409398</v>
       </c>
       <c r="AT20" s="3">
         <f>+AS20*(1+$AW$31)</f>
-        <v>506.6358675517547</v>
+        <v>228.34977855063491</v>
       </c>
       <c r="AU20" s="3">
-        <f t="shared" ref="AU20:DF20" si="22">+AT20*(1+$AW$31)</f>
-        <v>511.70222622727226</v>
+        <f t="shared" ref="AU20:DF20" si="31">+AT20*(1+$AW$31)</f>
+        <v>230.63327633614125</v>
       </c>
       <c r="AV20" s="3">
-        <f t="shared" si="22"/>
-        <v>516.81924848954498</v>
+        <f t="shared" si="31"/>
+        <v>232.93960909950266</v>
       </c>
       <c r="AW20" s="3">
-        <f t="shared" si="22"/>
-        <v>521.98744097444046</v>
+        <f t="shared" si="31"/>
+        <v>235.26900519049769</v>
       </c>
       <c r="AX20" s="3">
-        <f t="shared" si="22"/>
-        <v>527.20731538418488</v>
+        <f t="shared" si="31"/>
+        <v>237.62169524240267</v>
       </c>
       <c r="AY20" s="3">
-        <f t="shared" si="22"/>
-        <v>532.47938853802668</v>
+        <f t="shared" si="31"/>
+        <v>239.99791219482668</v>
       </c>
       <c r="AZ20" s="3">
-        <f t="shared" si="22"/>
-        <v>537.80418242340693</v>
+        <f t="shared" si="31"/>
+        <v>242.39789131677495</v>
       </c>
       <c r="BA20" s="3">
-        <f t="shared" si="22"/>
-        <v>543.18222424764099</v>
+        <f t="shared" si="31"/>
+        <v>244.8218702299427</v>
       </c>
       <c r="BB20" s="3">
-        <f t="shared" si="22"/>
-        <v>548.6140464901174</v>
+        <f t="shared" si="31"/>
+        <v>247.27008893224215</v>
       </c>
       <c r="BC20" s="3">
-        <f t="shared" si="22"/>
-        <v>554.10018695501856</v>
+        <f t="shared" si="31"/>
+        <v>249.74278982156457</v>
       </c>
       <c r="BD20" s="3">
-        <f t="shared" si="22"/>
-        <v>559.64118882456876</v>
+        <f t="shared" si="31"/>
+        <v>252.24021771978022</v>
       </c>
       <c r="BE20" s="3">
-        <f t="shared" si="22"/>
-        <v>565.23760071281447</v>
+        <f t="shared" si="31"/>
+        <v>254.76261989697801</v>
       </c>
       <c r="BF20" s="3">
-        <f t="shared" si="22"/>
-        <v>570.88997671994264</v>
+        <f t="shared" si="31"/>
+        <v>257.31024609594778</v>
       </c>
       <c r="BG20" s="3">
-        <f t="shared" si="22"/>
-        <v>576.59887648714209</v>
+        <f t="shared" si="31"/>
+        <v>259.88334855690726</v>
       </c>
       <c r="BH20" s="3">
-        <f t="shared" si="22"/>
-        <v>582.36486525201349</v>
+        <f t="shared" si="31"/>
+        <v>262.48218204247632</v>
       </c>
       <c r="BI20" s="3">
-        <f t="shared" si="22"/>
-        <v>588.18851390453358</v>
+        <f t="shared" si="31"/>
+        <v>265.10700386290108</v>
       </c>
       <c r="BJ20" s="3">
-        <f t="shared" si="22"/>
-        <v>594.07039904357896</v>
+        <f t="shared" si="31"/>
+        <v>267.75807390153011</v>
       </c>
       <c r="BK20" s="3">
-        <f t="shared" si="22"/>
-        <v>600.01110303401481</v>
+        <f t="shared" si="31"/>
+        <v>270.43565464054541</v>
       </c>
       <c r="BL20" s="3">
-        <f t="shared" si="22"/>
-        <v>606.01121406435493</v>
+        <f t="shared" si="31"/>
+        <v>273.14001118695086</v>
       </c>
       <c r="BM20" s="3">
-        <f t="shared" si="22"/>
-        <v>612.07132620499851</v>
+        <f t="shared" si="31"/>
+        <v>275.87141129882036</v>
       </c>
       <c r="BN20" s="3">
-        <f t="shared" si="22"/>
-        <v>618.19203946704852</v>
+        <f t="shared" si="31"/>
+        <v>278.63012541180859</v>
       </c>
       <c r="BO20" s="3">
-        <f t="shared" si="22"/>
-        <v>624.37395986171896</v>
+        <f t="shared" si="31"/>
+        <v>281.41642666592668</v>
       </c>
       <c r="BP20" s="3">
-        <f t="shared" si="22"/>
-        <v>630.6176994603361</v>
+        <f t="shared" si="31"/>
+        <v>284.23059093258593</v>
       </c>
       <c r="BQ20" s="3">
-        <f t="shared" si="22"/>
-        <v>636.92387645493943</v>
+        <f t="shared" si="31"/>
+        <v>287.07289684191181</v>
       </c>
       <c r="BR20" s="3">
-        <f t="shared" si="22"/>
-        <v>643.29311521948887</v>
+        <f t="shared" si="31"/>
+        <v>289.94362581033096</v>
       </c>
       <c r="BS20" s="3">
-        <f t="shared" si="22"/>
-        <v>649.72604637168376</v>
+        <f t="shared" si="31"/>
+        <v>292.84306206843428</v>
       </c>
       <c r="BT20" s="3">
-        <f t="shared" si="22"/>
-        <v>656.22330683540065</v>
+        <f t="shared" si="31"/>
+        <v>295.77149268911865</v>
       </c>
       <c r="BU20" s="3">
-        <f t="shared" si="22"/>
-        <v>662.78553990375462</v>
+        <f t="shared" si="31"/>
+        <v>298.72920761600983</v>
       </c>
       <c r="BV20" s="3">
-        <f t="shared" si="22"/>
-        <v>669.4133953027922</v>
+        <f t="shared" si="31"/>
+        <v>301.71649969216992</v>
       </c>
       <c r="BW20" s="3">
-        <f t="shared" si="22"/>
-        <v>676.10752925582017</v>
+        <f t="shared" si="31"/>
+        <v>304.7336646890916</v>
       </c>
       <c r="BX20" s="3">
-        <f t="shared" si="22"/>
-        <v>682.86860454837836</v>
+        <f t="shared" si="31"/>
+        <v>307.78100133598252</v>
       </c>
       <c r="BY20" s="3">
-        <f t="shared" si="22"/>
-        <v>689.69729059386214</v>
+        <f t="shared" si="31"/>
+        <v>310.85881134934237</v>
       </c>
       <c r="BZ20" s="3">
-        <f t="shared" si="22"/>
-        <v>696.59426349980072</v>
+        <f t="shared" si="31"/>
+        <v>313.96739946283583</v>
       </c>
       <c r="CA20" s="3">
-        <f t="shared" si="22"/>
-        <v>703.5602061347987</v>
+        <f t="shared" si="31"/>
+        <v>317.1070734574642</v>
       </c>
       <c r="CB20" s="3">
-        <f t="shared" si="22"/>
-        <v>710.59580819614666</v>
+        <f t="shared" si="31"/>
+        <v>320.27814419203884</v>
       </c>
       <c r="CC20" s="3">
-        <f t="shared" si="22"/>
-        <v>717.70176627810815</v>
+        <f t="shared" si="31"/>
+        <v>323.4809256339592</v>
       </c>
       <c r="CD20" s="3">
-        <f t="shared" si="22"/>
-        <v>724.87878394088921</v>
+        <f t="shared" si="31"/>
+        <v>326.71573489029879</v>
       </c>
       <c r="CE20" s="3">
-        <f t="shared" si="22"/>
-        <v>732.12757178029813</v>
+        <f t="shared" si="31"/>
+        <v>329.98289223920176</v>
       </c>
       <c r="CF20" s="3">
-        <f t="shared" si="22"/>
-        <v>739.44884749810114</v>
+        <f t="shared" si="31"/>
+        <v>333.28272116159377</v>
       </c>
       <c r="CG20" s="3">
-        <f t="shared" si="22"/>
-        <v>746.84333597308216</v>
+        <f t="shared" si="31"/>
+        <v>336.61554837320972</v>
       </c>
       <c r="CH20" s="3">
-        <f t="shared" si="22"/>
-        <v>754.31176933281301</v>
+        <f t="shared" si="31"/>
+        <v>339.98170385694181</v>
       </c>
       <c r="CI20" s="3">
-        <f t="shared" si="22"/>
-        <v>761.85488702614111</v>
+        <f t="shared" si="31"/>
+        <v>343.38152089551124</v>
       </c>
       <c r="CJ20" s="3">
-        <f t="shared" si="22"/>
-        <v>769.47343589640252</v>
+        <f t="shared" si="31"/>
+        <v>346.81533610446638</v>
       </c>
       <c r="CK20" s="3">
-        <f t="shared" si="22"/>
-        <v>777.16817025536659</v>
+        <f t="shared" si="31"/>
+        <v>350.28348946551102</v>
       </c>
       <c r="CL20" s="3">
-        <f t="shared" si="22"/>
-        <v>784.93985195792027</v>
+        <f t="shared" si="31"/>
+        <v>353.78632436016613</v>
       </c>
       <c r="CM20" s="3">
-        <f t="shared" si="22"/>
-        <v>792.78925047749942</v>
+        <f t="shared" si="31"/>
+        <v>357.32418760376783</v>
       </c>
       <c r="CN20" s="3">
-        <f t="shared" si="22"/>
-        <v>800.71714298227437</v>
+        <f t="shared" si="31"/>
+        <v>360.89742947980551</v>
       </c>
       <c r="CO20" s="3">
-        <f t="shared" si="22"/>
-        <v>808.7243144120971</v>
+        <f t="shared" si="31"/>
+        <v>364.50640377460354</v>
       </c>
       <c r="CP20" s="3">
-        <f t="shared" si="22"/>
-        <v>816.81155755621808</v>
+        <f t="shared" si="31"/>
+        <v>368.15146781234955</v>
       </c>
       <c r="CQ20" s="3">
-        <f t="shared" si="22"/>
-        <v>824.97967313178026</v>
+        <f t="shared" si="31"/>
+        <v>371.83298249047306</v>
       </c>
       <c r="CR20" s="3">
-        <f t="shared" si="22"/>
-        <v>833.22946986309807</v>
+        <f t="shared" si="31"/>
+        <v>375.5513123153778</v>
       </c>
       <c r="CS20" s="3">
-        <f t="shared" si="22"/>
-        <v>841.56176456172909</v>
+        <f t="shared" si="31"/>
+        <v>379.30682543853158</v>
       </c>
       <c r="CT20" s="3">
-        <f t="shared" si="22"/>
-        <v>849.97738220734641</v>
+        <f t="shared" si="31"/>
+        <v>383.09989369291691</v>
       </c>
       <c r="CU20" s="3">
-        <f t="shared" si="22"/>
-        <v>858.47715602941992</v>
+        <f t="shared" si="31"/>
+        <v>386.93089262984608</v>
       </c>
       <c r="CV20" s="3">
-        <f t="shared" si="22"/>
-        <v>867.06192758971417</v>
+        <f t="shared" si="31"/>
+        <v>390.80020155614454</v>
       </c>
       <c r="CW20" s="3">
-        <f t="shared" si="22"/>
-        <v>875.73254686561131</v>
+        <f t="shared" si="31"/>
+        <v>394.70820357170601</v>
       </c>
       <c r="CX20" s="3">
-        <f t="shared" si="22"/>
-        <v>884.48987233426749</v>
+        <f t="shared" si="31"/>
+        <v>398.65528560742308</v>
       </c>
       <c r="CY20" s="3">
-        <f t="shared" si="22"/>
-        <v>893.33477105761017</v>
+        <f t="shared" si="31"/>
+        <v>402.64183846349732</v>
       </c>
       <c r="CZ20" s="3">
-        <f t="shared" si="22"/>
-        <v>902.26811876818624</v>
+        <f t="shared" si="31"/>
+        <v>406.66825684813227</v>
       </c>
       <c r="DA20" s="3">
-        <f t="shared" si="22"/>
-        <v>911.29079995586812</v>
+        <f t="shared" si="31"/>
+        <v>410.7349394166136</v>
       </c>
       <c r="DB20" s="3">
-        <f t="shared" si="22"/>
-        <v>920.40370795542685</v>
+        <f t="shared" si="31"/>
+        <v>414.84228881077973</v>
       </c>
       <c r="DC20" s="3">
-        <f t="shared" si="22"/>
-        <v>929.60774503498112</v>
+        <f t="shared" si="31"/>
+        <v>418.99071169888754</v>
       </c>
       <c r="DD20" s="3">
-        <f t="shared" si="22"/>
-        <v>938.90382248533092</v>
+        <f t="shared" si="31"/>
+        <v>423.18061881587641</v>
       </c>
       <c r="DE20" s="3">
-        <f t="shared" si="22"/>
-        <v>948.29286071018419</v>
+        <f t="shared" si="31"/>
+        <v>427.41242500403519</v>
       </c>
       <c r="DF20" s="3">
-        <f t="shared" si="22"/>
-        <v>957.77578931728601</v>
+        <f t="shared" si="31"/>
+        <v>431.68654925407554</v>
       </c>
       <c r="DG20" s="3">
-        <f t="shared" ref="DG20:FR20" si="23">+DF20*(1+$AW$31)</f>
-        <v>967.35354721045883</v>
+        <f t="shared" ref="DG20:FR20" si="32">+DF20*(1+$AW$31)</f>
+        <v>436.00341474661633</v>
       </c>
       <c r="DH20" s="3">
-        <f t="shared" si="23"/>
-        <v>977.02708268256345</v>
+        <f t="shared" si="32"/>
+        <v>440.36344889408252</v>
       </c>
       <c r="DI20" s="3">
-        <f t="shared" si="23"/>
-        <v>986.79735350938904</v>
+        <f t="shared" si="32"/>
+        <v>444.76708338302336</v>
       </c>
       <c r="DJ20" s="3">
-        <f t="shared" si="23"/>
-        <v>996.66532704448298</v>
+        <f t="shared" si="32"/>
+        <v>449.21475421685358</v>
       </c>
       <c r="DK20" s="3">
-        <f t="shared" si="23"/>
-        <v>1006.6319803149278</v>
+        <f t="shared" si="32"/>
+        <v>453.70690175902212</v>
       </c>
       <c r="DL20" s="3">
-        <f t="shared" si="23"/>
-        <v>1016.6983001180771</v>
+        <f t="shared" si="32"/>
+        <v>458.24397077661234</v>
       </c>
       <c r="DM20" s="3">
-        <f t="shared" si="23"/>
-        <v>1026.8652831192578</v>
+        <f t="shared" si="32"/>
+        <v>462.82641048437847</v>
       </c>
       <c r="DN20" s="3">
-        <f t="shared" si="23"/>
-        <v>1037.1339359504505</v>
+        <f t="shared" si="32"/>
+        <v>467.45467458922224</v>
       </c>
       <c r="DO20" s="3">
-        <f t="shared" si="23"/>
-        <v>1047.5052753099549</v>
+        <f t="shared" si="32"/>
+        <v>472.12922133511444</v>
       </c>
       <c r="DP20" s="3">
-        <f t="shared" si="23"/>
-        <v>1057.9803280630545</v>
+        <f t="shared" si="32"/>
+        <v>476.85051354846559</v>
       </c>
       <c r="DQ20" s="3">
-        <f t="shared" si="23"/>
-        <v>1068.560131343685</v>
+        <f t="shared" si="32"/>
+        <v>481.61901868395023</v>
       </c>
       <c r="DR20" s="3">
-        <f t="shared" si="23"/>
-        <v>1079.2457326571218</v>
+        <f t="shared" si="32"/>
+        <v>486.43520887078972</v>
       </c>
       <c r="DS20" s="3">
-        <f t="shared" si="23"/>
-        <v>1090.038189983693</v>
+        <f t="shared" si="32"/>
+        <v>491.29956095949763</v>
       </c>
       <c r="DT20" s="3">
-        <f t="shared" si="23"/>
-        <v>1100.9385718835299</v>
+        <f t="shared" si="32"/>
+        <v>496.21255656909261</v>
       </c>
       <c r="DU20" s="3">
-        <f t="shared" si="23"/>
-        <v>1111.9479576023652</v>
+        <f t="shared" si="32"/>
+        <v>501.17468213478355</v>
       </c>
       <c r="DV20" s="3">
-        <f t="shared" si="23"/>
-        <v>1123.0674371783889</v>
+        <f t="shared" si="32"/>
+        <v>506.18642895613141</v>
       </c>
       <c r="DW20" s="3">
-        <f t="shared" si="23"/>
-        <v>1134.2981115501727</v>
+        <f t="shared" si="32"/>
+        <v>511.24829324569271</v>
       </c>
       <c r="DX20" s="3">
-        <f t="shared" si="23"/>
-        <v>1145.6410926656745</v>
+        <f t="shared" si="32"/>
+        <v>516.36077617814965</v>
       </c>
       <c r="DY20" s="3">
-        <f t="shared" si="23"/>
-        <v>1157.0975035923311</v>
+        <f t="shared" si="32"/>
+        <v>521.52438393993111</v>
       </c>
       <c r="DZ20" s="3">
-        <f t="shared" si="23"/>
-        <v>1168.6684786282544</v>
+        <f t="shared" si="32"/>
+        <v>526.73962777933048</v>
       </c>
       <c r="EA20" s="3">
-        <f t="shared" si="23"/>
-        <v>1180.3551634145369</v>
+        <f t="shared" si="32"/>
+        <v>532.00702405712377</v>
       </c>
       <c r="EB20" s="3">
-        <f t="shared" si="23"/>
-        <v>1192.1587150486823</v>
+        <f t="shared" si="32"/>
+        <v>537.327094297695</v>
       </c>
       <c r="EC20" s="3">
-        <f t="shared" si="23"/>
-        <v>1204.0803021991692</v>
+        <f t="shared" si="32"/>
+        <v>542.700365240672</v>
       </c>
       <c r="ED20" s="3">
-        <f t="shared" si="23"/>
-        <v>1216.1211052211609</v>
+        <f t="shared" si="32"/>
+        <v>548.12736889307871</v>
       </c>
       <c r="EE20" s="3">
-        <f t="shared" si="23"/>
-        <v>1228.2823162733725</v>
+        <f t="shared" si="32"/>
+        <v>553.60864258200945</v>
       </c>
       <c r="EF20" s="3">
-        <f t="shared" si="23"/>
-        <v>1240.5651394361064</v>
+        <f t="shared" si="32"/>
+        <v>559.1447290078296</v>
       </c>
       <c r="EG20" s="3">
-        <f t="shared" si="23"/>
-        <v>1252.9707908304674</v>
+        <f t="shared" si="32"/>
+        <v>564.73617629790795</v>
       </c>
       <c r="EH20" s="3">
-        <f t="shared" si="23"/>
-        <v>1265.5004987387722</v>
+        <f t="shared" si="32"/>
+        <v>570.38353806088708</v>
       </c>
       <c r="EI20" s="3">
-        <f t="shared" si="23"/>
-        <v>1278.1555037261598</v>
+        <f t="shared" si="32"/>
+        <v>576.08737344149597</v>
       </c>
       <c r="EJ20" s="3">
-        <f t="shared" si="23"/>
-        <v>1290.9370587634214</v>
+        <f t="shared" si="32"/>
+        <v>581.84824717591096</v>
       </c>
       <c r="EK20" s="3">
-        <f t="shared" si="23"/>
-        <v>1303.8464293510556</v>
+        <f t="shared" si="32"/>
+        <v>587.66672964767008</v>
       </c>
       <c r="EL20" s="3">
-        <f t="shared" si="23"/>
-        <v>1316.8848936445661</v>
+        <f t="shared" si="32"/>
+        <v>593.54339694414682</v>
       </c>
       <c r="EM20" s="3">
-        <f t="shared" si="23"/>
-        <v>1330.0537425810119</v>
+        <f t="shared" si="32"/>
+        <v>599.47883091358824</v>
       </c>
       <c r="EN20" s="3">
-        <f t="shared" si="23"/>
-        <v>1343.3542800068219</v>
+        <f t="shared" si="32"/>
+        <v>605.4736192227241</v>
       </c>
       <c r="EO20" s="3">
-        <f t="shared" si="23"/>
-        <v>1356.7878228068901</v>
+        <f t="shared" si="32"/>
+        <v>611.52835541495131</v>
       </c>
       <c r="EP20" s="3">
-        <f t="shared" si="23"/>
-        <v>1370.3557010349589</v>
+        <f t="shared" si="32"/>
+        <v>617.64363896910083</v>
       </c>
       <c r="EQ20" s="3">
-        <f t="shared" si="23"/>
-        <v>1384.0592580453085</v>
+        <f t="shared" si="32"/>
+        <v>623.82007535879188</v>
       </c>
       <c r="ER20" s="3">
-        <f t="shared" si="23"/>
-        <v>1397.8998506257617</v>
+        <f t="shared" si="32"/>
+        <v>630.05827611237976</v>
       </c>
       <c r="ES20" s="3">
-        <f t="shared" si="23"/>
-        <v>1411.8788491320192</v>
+        <f t="shared" si="32"/>
+        <v>636.35885887350355</v>
       </c>
       <c r="ET20" s="3">
-        <f t="shared" si="23"/>
-        <v>1425.9976376233394</v>
+        <f t="shared" si="32"/>
+        <v>642.72244746223862</v>
       </c>
       <c r="EU20" s="3">
-        <f t="shared" si="23"/>
-        <v>1440.2576139995729</v>
+        <f t="shared" si="32"/>
+        <v>649.14967193686107</v>
       </c>
       <c r="EV20" s="3">
-        <f t="shared" si="23"/>
-        <v>1454.6601901395686</v>
+        <f t="shared" si="32"/>
+        <v>655.64116865622964</v>
       </c>
       <c r="EW20" s="3">
-        <f t="shared" si="23"/>
-        <v>1469.2067920409643</v>
+        <f t="shared" si="32"/>
+        <v>662.19758034279198</v>
       </c>
       <c r="EX20" s="3">
-        <f t="shared" si="23"/>
-        <v>1483.898859961374</v>
+        <f t="shared" si="32"/>
+        <v>668.81955614621995</v>
       </c>
       <c r="EY20" s="3">
-        <f t="shared" si="23"/>
-        <v>1498.7378485609877</v>
+        <f t="shared" si="32"/>
+        <v>675.50775170768213</v>
       </c>
       <c r="EZ20" s="3">
-        <f t="shared" si="23"/>
-        <v>1513.7252270465976</v>
+        <f t="shared" si="32"/>
+        <v>682.262829224759</v>
       </c>
       <c r="FA20" s="3">
-        <f t="shared" si="23"/>
-        <v>1528.8624793170636</v>
+        <f t="shared" si="32"/>
+        <v>689.0854575170066</v>
       </c>
       <c r="FB20" s="3">
-        <f t="shared" si="23"/>
-        <v>1544.1511041102342</v>
+        <f t="shared" si="32"/>
+        <v>695.97631209217673</v>
       </c>
       <c r="FC20" s="3">
-        <f t="shared" si="23"/>
-        <v>1559.5926151513365</v>
+        <f t="shared" si="32"/>
+        <v>702.93607521309855</v>
       </c>
       <c r="FD20" s="3">
-        <f t="shared" si="23"/>
-        <v>1575.1885413028499</v>
+        <f t="shared" si="32"/>
+        <v>709.96543596522952</v>
       </c>
       <c r="FE20" s="3">
-        <f t="shared" si="23"/>
-        <v>1590.9404267158784</v>
+        <f t="shared" si="32"/>
+        <v>717.06509032488179</v>
       </c>
       <c r="FF20" s="3">
-        <f t="shared" si="23"/>
-        <v>1606.8498309830372</v>
+        <f t="shared" si="32"/>
+        <v>724.23574122813056</v>
       </c>
       <c r="FG20" s="3">
-        <f t="shared" si="23"/>
-        <v>1622.9183292928676</v>
+        <f t="shared" si="32"/>
+        <v>731.47809864041187</v>
       </c>
       <c r="FH20" s="3">
-        <f t="shared" si="23"/>
-        <v>1639.1475125857962</v>
+        <f t="shared" si="32"/>
+        <v>738.79287962681599</v>
       </c>
       <c r="FI20" s="3">
-        <f t="shared" si="23"/>
-        <v>1655.5389877116543</v>
+        <f t="shared" si="32"/>
+        <v>746.18080842308416</v>
       </c>
       <c r="FJ20" s="3">
-        <f t="shared" si="23"/>
-        <v>1672.0943775887708</v>
+        <f t="shared" si="32"/>
+        <v>753.64261650731498</v>
       </c>
       <c r="FK20" s="3">
-        <f t="shared" si="23"/>
-        <v>1688.8153213646585</v>
+        <f t="shared" si="32"/>
+        <v>761.17904267238816</v>
       </c>
       <c r="FL20" s="3">
-        <f t="shared" si="23"/>
-        <v>1705.7034745783051</v>
+        <f t="shared" si="32"/>
+        <v>768.79083309911209</v>
       </c>
       <c r="FM20" s="3">
-        <f t="shared" si="23"/>
-        <v>1722.7605093240882</v>
+        <f t="shared" si="32"/>
+        <v>776.47874143010324</v>
       </c>
       <c r="FN20" s="3">
-        <f t="shared" si="23"/>
-        <v>1739.9881144173291</v>
+        <f t="shared" si="32"/>
+        <v>784.2435288444043</v>
       </c>
       <c r="FO20" s="3">
-        <f t="shared" si="23"/>
-        <v>1757.3879955615025</v>
+        <f t="shared" si="32"/>
+        <v>792.08596413284829</v>
       </c>
       <c r="FP20" s="3">
-        <f t="shared" si="23"/>
-        <v>1774.9618755171175</v>
+        <f t="shared" si="32"/>
+        <v>800.00682377417672</v>
       </c>
       <c r="FQ20" s="3">
-        <f t="shared" si="23"/>
-        <v>1792.7114942722887</v>
+        <f t="shared" si="32"/>
+        <v>808.00689201191847</v>
       </c>
       <c r="FR20" s="3">
-        <f t="shared" si="23"/>
-        <v>1810.6386092150117</v>
+        <f t="shared" si="32"/>
+        <v>816.08696093203764</v>
       </c>
       <c r="FS20" s="3">
-        <f t="shared" ref="FS20:ID20" si="24">+FR20*(1+$AW$31)</f>
-        <v>1828.7449953071618</v>
+        <f t="shared" ref="FS20:ID20" si="33">+FR20*(1+$AW$31)</f>
+        <v>824.24783054135798</v>
       </c>
       <c r="FT20" s="3">
-        <f t="shared" si="24"/>
-        <v>1847.0324452602335</v>
+        <f t="shared" si="33"/>
+        <v>832.49030884677154</v>
       </c>
       <c r="FU20" s="3">
-        <f t="shared" si="24"/>
-        <v>1865.502769712836</v>
+        <f t="shared" si="33"/>
+        <v>840.81521193523929</v>
       </c>
       <c r="FV20" s="3">
-        <f t="shared" si="24"/>
-        <v>1884.1577974099644</v>
+        <f t="shared" si="33"/>
+        <v>849.22336405459168</v>
       </c>
       <c r="FW20" s="3">
-        <f t="shared" si="24"/>
-        <v>1902.999375384064</v>
+        <f t="shared" si="33"/>
+        <v>857.7155976951376</v>
       </c>
       <c r="FX20" s="3">
-        <f t="shared" si="24"/>
-        <v>1922.0293691379047</v>
+        <f t="shared" si="33"/>
+        <v>866.29275367208902</v>
       </c>
       <c r="FY20" s="3">
-        <f t="shared" si="24"/>
-        <v>1941.2496628292838</v>
+        <f t="shared" si="33"/>
+        <v>874.95568120880989</v>
       </c>
       <c r="FZ20" s="3">
-        <f t="shared" si="24"/>
-        <v>1960.6621594575768</v>
+        <f t="shared" si="33"/>
+        <v>883.70523802089804</v>
       </c>
       <c r="GA20" s="3">
-        <f t="shared" si="24"/>
-        <v>1980.2687810521525</v>
+        <f t="shared" si="33"/>
+        <v>892.54229040110704</v>
       </c>
       <c r="GB20" s="3">
-        <f t="shared" si="24"/>
-        <v>2000.071468862674</v>
+        <f t="shared" si="33"/>
+        <v>901.46771330511808</v>
       </c>
       <c r="GC20" s="3">
-        <f t="shared" si="24"/>
-        <v>2020.0721835513007</v>
+        <f t="shared" si="33"/>
+        <v>910.48239043816932</v>
       </c>
       <c r="GD20" s="3">
-        <f t="shared" si="24"/>
-        <v>2040.2729053868136</v>
+        <f t="shared" si="33"/>
+        <v>919.58721434255096</v>
       </c>
       <c r="GE20" s="3">
-        <f t="shared" si="24"/>
-        <v>2060.6756344406817</v>
+        <f t="shared" si="33"/>
+        <v>928.78308648597647</v>
       </c>
       <c r="GF20" s="3">
-        <f t="shared" si="24"/>
-        <v>2081.2823907850884</v>
+        <f t="shared" si="33"/>
+        <v>938.07091735083623</v>
       </c>
       <c r="GG20" s="3">
-        <f t="shared" si="24"/>
-        <v>2102.0952146929394</v>
+        <f t="shared" si="33"/>
+        <v>947.45162652434465</v>
       </c>
       <c r="GH20" s="3">
-        <f t="shared" si="24"/>
-        <v>2123.116166839869</v>
+        <f t="shared" si="33"/>
+        <v>956.92614278958808</v>
       </c>
       <c r="GI20" s="3">
-        <f t="shared" si="24"/>
-        <v>2144.3473285082678</v>
+        <f t="shared" si="33"/>
+        <v>966.49540421748395</v>
       </c>
       <c r="GJ20" s="3">
-        <f t="shared" si="24"/>
-        <v>2165.7908017933505</v>
+        <f t="shared" si="33"/>
+        <v>976.16035825965878</v>
       </c>
       <c r="GK20" s="3">
-        <f t="shared" si="24"/>
-        <v>2187.4487098112841</v>
+        <f t="shared" si="33"/>
+        <v>985.92196184225543</v>
       </c>
       <c r="GL20" s="3">
-        <f t="shared" si="24"/>
-        <v>2209.3231969093968</v>
+        <f t="shared" si="33"/>
+        <v>995.781181460678</v>
       </c>
       <c r="GM20" s="3">
-        <f t="shared" si="24"/>
-        <v>2231.4164288784909</v>
+        <f t="shared" si="33"/>
+        <v>1005.7389932752848</v>
       </c>
       <c r="GN20" s="3">
-        <f t="shared" si="24"/>
-        <v>2253.7305931672759</v>
+        <f t="shared" si="33"/>
+        <v>1015.7963832080376</v>
       </c>
       <c r="GO20" s="3">
-        <f t="shared" si="24"/>
-        <v>2276.2678990989484</v>
+        <f t="shared" si="33"/>
+        <v>1025.9543470401179</v>
       </c>
       <c r="GP20" s="3">
-        <f t="shared" si="24"/>
-        <v>2299.030578089938</v>
+        <f t="shared" si="33"/>
+        <v>1036.2138905105191</v>
       </c>
       <c r="GQ20" s="3">
-        <f t="shared" si="24"/>
-        <v>2322.0208838708372</v>
+        <f t="shared" si="33"/>
+        <v>1046.5760294156244</v>
       </c>
       <c r="GR20" s="3">
-        <f t="shared" si="24"/>
-        <v>2345.2410927095457</v>
+        <f t="shared" si="33"/>
+        <v>1057.0417897097807</v>
       </c>
       <c r="GS20" s="3">
-        <f t="shared" si="24"/>
-        <v>2368.6935036366413</v>
+        <f t="shared" si="33"/>
+        <v>1067.6122076068784</v>
       </c>
       <c r="GT20" s="3">
-        <f t="shared" si="24"/>
-        <v>2392.3804386730076</v>
+        <f t="shared" si="33"/>
+        <v>1078.2883296829473</v>
       </c>
       <c r="GU20" s="3">
-        <f t="shared" si="24"/>
-        <v>2416.3042430597375</v>
+        <f t="shared" si="33"/>
+        <v>1089.0712129797769</v>
       </c>
       <c r="GV20" s="3">
-        <f t="shared" si="24"/>
-        <v>2440.4672854903347</v>
+        <f t="shared" si="33"/>
+        <v>1099.9619251095746</v>
       </c>
       <c r="GW20" s="3">
-        <f t="shared" si="24"/>
-        <v>2464.871958345238</v>
+        <f t="shared" si="33"/>
+        <v>1110.9615443606704</v>
       </c>
       <c r="GX20" s="3">
-        <f t="shared" si="24"/>
-        <v>2489.5206779286905</v>
+        <f t="shared" si="33"/>
+        <v>1122.0711598042772</v>
       </c>
       <c r="GY20" s="3">
-        <f t="shared" si="24"/>
-        <v>2514.4158847079775</v>
+        <f t="shared" si="33"/>
+        <v>1133.2918714023199</v>
       </c>
       <c r="GZ20" s="3">
-        <f t="shared" si="24"/>
-        <v>2539.5600435550573</v>
+        <f t="shared" si="33"/>
+        <v>1144.6247901163431</v>
       </c>
       <c r="HA20" s="3">
-        <f t="shared" si="24"/>
-        <v>2564.9556439906078</v>
+        <f t="shared" si="33"/>
+        <v>1156.0710380175065</v>
       </c>
       <c r="HB20" s="3">
-        <f t="shared" si="24"/>
-        <v>2590.6052004305138</v>
+        <f t="shared" si="33"/>
+        <v>1167.6317483976816</v>
       </c>
       <c r="HC20" s="3">
-        <f t="shared" si="24"/>
-        <v>2616.5112524348192</v>
+        <f t="shared" si="33"/>
+        <v>1179.3080658816584</v>
       </c>
       <c r="HD20" s="3">
-        <f t="shared" si="24"/>
-        <v>2642.6763649591676</v>
+        <f t="shared" si="33"/>
+        <v>1191.1011465404749</v>
       </c>
       <c r="HE20" s="3">
-        <f t="shared" si="24"/>
-        <v>2669.1031286087591</v>
+        <f t="shared" si="33"/>
+        <v>1203.0121580058797</v>
       </c>
       <c r="HF20" s="3">
-        <f t="shared" si="24"/>
-        <v>2695.7941598948469</v>
+        <f t="shared" si="33"/>
+        <v>1215.0422795859386</v>
       </c>
       <c r="HG20" s="3">
-        <f t="shared" si="24"/>
-        <v>2722.7521014937952</v>
+        <f t="shared" si="33"/>
+        <v>1227.192702381798</v>
       </c>
       <c r="HH20" s="3">
-        <f t="shared" si="24"/>
-        <v>2749.979622508733</v>
+        <f t="shared" si="33"/>
+        <v>1239.4646294056161</v>
       </c>
       <c r="HI20" s="3">
-        <f t="shared" si="24"/>
-        <v>2777.4794187338202</v>
+        <f t="shared" si="33"/>
+        <v>1251.8592756996723</v>
       </c>
       <c r="HJ20" s="3">
-        <f t="shared" si="24"/>
-        <v>2805.2542129211583</v>
+        <f t="shared" si="33"/>
+        <v>1264.3778684566689</v>
       </c>
       <c r="HK20" s="3">
-        <f t="shared" si="24"/>
-        <v>2833.3067550503702</v>
+        <f t="shared" si="33"/>
+        <v>1277.0216471412357</v>
       </c>
       <c r="HL20" s="3">
-        <f t="shared" si="24"/>
-        <v>2861.6398226008737</v>
+        <f t="shared" si="33"/>
+        <v>1289.7918636126481</v>
       </c>
       <c r="HM20" s="3">
-        <f t="shared" si="24"/>
-        <v>2890.2562208268823</v>
+        <f t="shared" si="33"/>
+        <v>1302.6897822487745</v>
       </c>
       <c r="HN20" s="3">
-        <f t="shared" si="24"/>
-        <v>2919.1587830351514</v>
+        <f t="shared" si="33"/>
+        <v>1315.7166800712623</v>
       </c>
       <c r="HO20" s="3">
-        <f t="shared" si="24"/>
-        <v>2948.350370865503</v>
+        <f t="shared" si="33"/>
+        <v>1328.873846871975</v>
       </c>
       <c r="HP20" s="3">
-        <f t="shared" si="24"/>
-        <v>2977.833874574158</v>
+        <f t="shared" si="33"/>
+        <v>1342.1625853406947</v>
       </c>
       <c r="HQ20" s="3">
-        <f t="shared" si="24"/>
-        <v>3007.6122133198996</v>
+        <f t="shared" si="33"/>
+        <v>1355.5842111941017</v>
       </c>
       <c r="HR20" s="3">
-        <f t="shared" si="24"/>
-        <v>3037.6883354530987</v>
+        <f t="shared" si="33"/>
+        <v>1369.1400533060428</v>
       </c>
       <c r="HS20" s="3">
-        <f t="shared" si="24"/>
-        <v>3068.0652188076297</v>
+        <f t="shared" si="33"/>
+        <v>1382.8314538391032</v>
       </c>
       <c r="HT20" s="3">
-        <f t="shared" si="24"/>
-        <v>3098.7458709957059</v>
+        <f t="shared" si="33"/>
+        <v>1396.6597683774942</v>
       </c>
       <c r="HU20" s="3">
-        <f t="shared" si="24"/>
-        <v>3129.733329705663</v>
+        <f t="shared" si="33"/>
+        <v>1410.6263660612692</v>
       </c>
       <c r="HV20" s="3">
-        <f t="shared" si="24"/>
-        <v>3161.0306630027198</v>
+        <f t="shared" si="33"/>
+        <v>1424.7326297218819</v>
       </c>
       <c r="HW20" s="3">
-        <f t="shared" si="24"/>
-        <v>3192.6409696327469</v>
+        <f t="shared" si="33"/>
+        <v>1438.9799560191009</v>
       </c>
       <c r="HX20" s="3">
-        <f t="shared" si="24"/>
-        <v>3224.5673793290744</v>
+        <f t="shared" si="33"/>
+        <v>1453.3697555792919</v>
       </c>
       <c r="HY20" s="3">
-        <f t="shared" si="24"/>
-        <v>3256.8130531223651</v>
+        <f t="shared" si="33"/>
+        <v>1467.9034531350849</v>
       </c>
       <c r="HZ20" s="3">
-        <f t="shared" si="24"/>
-        <v>3289.3811836535888</v>
+        <f t="shared" si="33"/>
+        <v>1482.5824876664358</v>
       </c>
       <c r="IA20" s="3">
-        <f t="shared" si="24"/>
-        <v>3322.2749954901246</v>
+        <f t="shared" si="33"/>
+        <v>1497.4083125431002</v>
       </c>
       <c r="IB20" s="3">
-        <f t="shared" si="24"/>
-        <v>3355.4977454450259</v>
+        <f t="shared" si="33"/>
+        <v>1512.3823956685312</v>
       </c>
       <c r="IC20" s="3">
-        <f t="shared" si="24"/>
-        <v>3389.0527228994761</v>
+        <f t="shared" si="33"/>
+        <v>1527.5062196252165</v>
       </c>
       <c r="ID20" s="3">
-        <f t="shared" si="24"/>
-        <v>3422.9432501284709</v>
+        <f t="shared" si="33"/>
+        <v>1542.7812818214686</v>
       </c>
       <c r="IE20" s="3">
-        <f t="shared" ref="IE20:IZ20" si="25">+ID20*(1+$AW$31)</f>
-        <v>3457.1726826297559</v>
+        <f t="shared" ref="IE20:IZ20" si="34">+ID20*(1+$AW$31)</f>
+        <v>1558.2090946396834</v>
       </c>
       <c r="IF20" s="3">
-        <f t="shared" si="25"/>
-        <v>3491.7444094560533</v>
+        <f t="shared" si="34"/>
+        <v>1573.7911855860802</v>
       </c>
       <c r="IG20" s="3">
-        <f t="shared" si="25"/>
-        <v>3526.6618535506141</v>
+        <f t="shared" si="34"/>
+        <v>1589.5290974419411</v>
       </c>
       <c r="IH20" s="3">
-        <f t="shared" si="25"/>
-        <v>3561.9284720861201</v>
+        <f t="shared" si="34"/>
+        <v>1605.4243884163604</v>
       </c>
       <c r="II20" s="3">
-        <f t="shared" si="25"/>
-        <v>3597.5477568069814</v>
+        <f t="shared" si="34"/>
+        <v>1621.4786323005242</v>
       </c>
       <c r="IJ20" s="3">
-        <f t="shared" si="25"/>
-        <v>3633.5232343750513</v>
+        <f t="shared" si="34"/>
+        <v>1637.6934186235294</v>
       </c>
       <c r="IK20" s="3">
-        <f t="shared" si="25"/>
-        <v>3669.858466718802</v>
+        <f t="shared" si="34"/>
+        <v>1654.0703528097647</v>
       </c>
       <c r="IL20" s="3">
-        <f t="shared" si="25"/>
-        <v>3706.5570513859902</v>
-      </c>
-      <c r="IM20" s="3">
-        <f t="shared" si="25"/>
-        <v>3743.6226218998499</v>
-      </c>
-      <c r="IN20" s="3">
-        <f t="shared" si="25"/>
-        <v>3781.0588481188483</v>
-      </c>
-      <c r="IO20" s="3">
-        <f t="shared" si="25"/>
-        <v>3818.8694366000368</v>
-      </c>
-      <c r="IP20" s="3">
-        <f t="shared" si="25"/>
-        <v>3857.0581309660374</v>
-      </c>
-      <c r="IQ20" s="3">
-        <f t="shared" si="25"/>
-        <v>3895.628712275698</v>
-      </c>
-      <c r="IR20" s="3">
-        <f t="shared" si="25"/>
-        <v>3934.5849993984552</v>
-      </c>
-      <c r="IS20" s="3">
-        <f t="shared" si="25"/>
-        <v>3973.93084939244</v>
-      </c>
-      <c r="IT20" s="3">
-        <f t="shared" si="25"/>
-        <v>4013.6701578863644</v>
-      </c>
-      <c r="IU20" s="3">
-        <f t="shared" si="25"/>
-        <v>4053.8068594652282</v>
-      </c>
-      <c r="IV20" s="3">
-        <f t="shared" si="25"/>
-        <v>4094.3449280598807</v>
-      </c>
-      <c r="IW20" s="3">
-        <f t="shared" si="25"/>
-        <v>4135.2883773404792</v>
-      </c>
-      <c r="IX20" s="3">
-        <f t="shared" si="25"/>
-        <v>4176.641261113884</v>
-      </c>
-      <c r="IY20" s="3">
-        <f t="shared" si="25"/>
-        <v>4218.4076737250225</v>
-      </c>
-      <c r="IZ20" s="3">
-        <f t="shared" si="25"/>
-        <v>4260.591750462273</v>
-      </c>
-    </row>
-    <row r="21" spans="2:260">
+        <f t="shared" si="34"/>
+        <v>1670.6110563378625</v>
+      </c>
+    </row>
+    <row r="21" spans="2:246">
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
@@ -4206,6 +5032,9 @@
         <f>+U21</f>
         <v>47.1</v>
       </c>
+      <c r="W21" s="1">
+        <v>45.3</v>
+      </c>
       <c r="AE21" s="1">
         <v>50.9</v>
       </c>
@@ -4222,47 +5051,46 @@
         <v>47.8</v>
       </c>
       <c r="AJ21" s="1">
-        <f>+AJ20/AJ22</f>
-        <v>47.176432750490434</v>
+        <v>47.8</v>
       </c>
       <c r="AK21" s="1">
         <f>+AJ21</f>
-        <v>47.176432750490434</v>
+        <v>47.8</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" ref="AL21:AS21" si="26">+AK21</f>
-        <v>47.176432750490434</v>
+        <f t="shared" ref="AL21:AS21" si="35">+AK21</f>
+        <v>47.8</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="26"/>
-        <v>47.176432750490434</v>
+        <f t="shared" si="35"/>
+        <v>47.8</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="26"/>
-        <v>47.176432750490434</v>
+        <f t="shared" si="35"/>
+        <v>47.8</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="26"/>
-        <v>47.176432750490434</v>
+        <f t="shared" si="35"/>
+        <v>47.8</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" si="26"/>
-        <v>47.176432750490434</v>
+        <f t="shared" si="35"/>
+        <v>47.8</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="26"/>
-        <v>47.176432750490434</v>
+        <f t="shared" si="35"/>
+        <v>47.8</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="26"/>
-        <v>47.176432750490434</v>
+        <f t="shared" si="35"/>
+        <v>47.8</v>
       </c>
       <c r="AS21" s="1">
-        <f t="shared" si="26"/>
-        <v>47.176432750490434</v>
-      </c>
-    </row>
-    <row r="22" spans="2:260" s="5" customFormat="1">
+        <f t="shared" si="35"/>
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:246" s="5" customFormat="1">
       <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
@@ -4342,9 +5170,13 @@
         <f>+U20/U21</f>
         <v>0.97027600849257145</v>
       </c>
-      <c r="V22" s="1">
-        <f>+V20/V21</f>
-        <v>1.0127388535031785</v>
+      <c r="V22" s="9">
+        <f>+AJ22-SUM(S22:U22)</f>
+        <v>0.10376048407713845</v>
+      </c>
+      <c r="W22" s="5">
+        <f>+W20/W21</f>
+        <v>1.1523178807947008</v>
       </c>
       <c r="AE22" s="5">
         <f>+AE20/AE21</f>
@@ -4367,47 +5199,47 @@
         <v>3.6297071129707179</v>
       </c>
       <c r="AJ22" s="5">
-        <f t="shared" si="2"/>
-        <v>2.9654637250745877</v>
+        <f>+AJ20/AJ21</f>
+        <v>2.0564853556485474</v>
       </c>
       <c r="AK22" s="5">
         <f>+AK20/AK21</f>
-        <v>3.8156995493606267</v>
+        <v>2.3168076824564143</v>
       </c>
       <c r="AL22" s="5">
-        <f t="shared" ref="AL22:AS22" si="27">+AL20/AL21</f>
-        <v>4.4523285514874162</v>
+        <f t="shared" ref="AL22:AS22" si="36">+AL20/AL21</f>
+        <v>2.5606160411967562</v>
       </c>
       <c r="AM22" s="5">
-        <f t="shared" si="27"/>
-        <v>5.1418556435708265</v>
+        <f t="shared" si="36"/>
+        <v>2.8190529014615309</v>
       </c>
       <c r="AN22" s="5">
-        <f t="shared" si="27"/>
-        <v>5.8882485298990215</v>
+        <f t="shared" si="36"/>
+        <v>3.0929959733421906</v>
       </c>
       <c r="AO22" s="5">
-        <f t="shared" si="27"/>
-        <v>6.6957558432375563</v>
+        <f t="shared" si="36"/>
+        <v>3.3833756295356916</v>
       </c>
       <c r="AP22" s="5">
-        <f t="shared" si="27"/>
-        <v>7.5689263153139237</v>
+        <f t="shared" si="36"/>
+        <v>3.6911780651007935</v>
       </c>
       <c r="AQ22" s="5">
-        <f t="shared" si="27"/>
-        <v>8.5126292225290019</v>
+        <f t="shared" si="36"/>
+        <v>4.0174486467998189</v>
       </c>
       <c r="AR22" s="5">
-        <f t="shared" si="27"/>
-        <v>9.5320761901590778</v>
+        <f t="shared" si="36"/>
+        <v>4.3632954634007683</v>
       </c>
       <c r="AS22" s="5">
-        <f t="shared" si="27"/>
-        <v>10.632844443672074</v>
-      </c>
-    </row>
-    <row r="24" spans="2:260">
+        <f t="shared" si="36"/>
+        <v>4.7298930889977822</v>
+      </c>
+    </row>
+    <row r="24" spans="2:246">
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
@@ -4424,12 +5256,12 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
     </row>
-    <row r="25" spans="2:260">
+    <row r="25" spans="2:246">
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:260">
+    <row r="26" spans="2:246">
       <c r="B26" s="1" t="s">
         <v>80</v>
       </c>
@@ -4438,287 +5270,291 @@
         <v>-6.2406390414377899E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:260">
+    <row r="27" spans="2:246">
       <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" ref="U27:U29" si="28">+U4/Q4-1</f>
+        <f t="shared" ref="U27:U29" si="37">+U4/Q4-1</f>
         <v>0.12786449684490209</v>
       </c>
     </row>
-    <row r="28" spans="2:260">
+    <row r="28" spans="2:246">
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>0.30818181818181833</v>
       </c>
     </row>
-    <row r="29" spans="2:260">
+    <row r="29" spans="2:246">
       <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>-6.0930232558139563E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:260" s="4" customFormat="1">
+    <row r="30" spans="2:246" s="4" customFormat="1">
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" ref="G30:V32" si="29">+G7/C7-1</f>
+        <f t="shared" ref="G30:W32" si="38">+G7/C7-1</f>
         <v>-3.5580110497237638E-2</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-9.6280087527352287E-2</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>4.5346833261525221E-2</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>9.1686257747382038E-2</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.12018790100824939</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.26973365617433398</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.10819165378670781</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>7.4980422866092411E-2</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>9.8496471310217881E-2</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>8.1140350877193068E-2</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>5.6903765690376584E-2</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>8.4410854124931545E-2</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.10372439478584727</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>7.2581356380633233E-2</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>7.9792381455089378E-2</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="29"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="38"/>
+        <v>4.593164833319352E-2</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="38"/>
+        <v>4.2770372869917139E-2</v>
       </c>
       <c r="AF30" s="4">
-        <f t="shared" ref="AF30:AS30" si="30">+AF7/AE7-1</f>
+        <f t="shared" ref="AF30:AS30" si="39">+AF7/AE7-1</f>
         <v>5.5690905442976169E-2</v>
       </c>
       <c r="AG30" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>2.0905734144223143E-3</v>
       </c>
       <c r="AH30" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.13798802460104564</v>
       </c>
       <c r="AI30" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>7.9829531927051223E-2</v>
       </c>
       <c r="AJ30" s="7">
-        <f t="shared" si="30"/>
-        <v>7.5833976408334225E-2</v>
+        <f t="shared" si="39"/>
+        <v>7.4765736963951168E-2</v>
       </c>
       <c r="AK30" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
+        <v>5.6496943338940619E-2</v>
+      </c>
+      <c r="AL30" s="7">
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AL30" s="7">
-        <f t="shared" si="30"/>
+      <c r="AM30" s="7">
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AM30" s="7">
-        <f t="shared" si="30"/>
+      <c r="AN30" s="7">
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AN30" s="7">
-        <f t="shared" si="30"/>
+      <c r="AO30" s="7">
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AO30" s="7">
-        <f t="shared" si="30"/>
+      <c r="AP30" s="7">
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AP30" s="7">
-        <f t="shared" si="30"/>
+      <c r="AQ30" s="7">
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AQ30" s="7">
-        <f t="shared" si="30"/>
+      <c r="AR30" s="7">
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AR30" s="7">
-        <f t="shared" si="30"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
       <c r="AS30" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="AV30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AW30" s="4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="2:260" s="4" customFormat="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="2:246" s="4" customFormat="1">
       <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-1.3234666287178176E-2</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-3.4721242060691604E-2</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>3.9893617021276695E-2</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>7.1620665251239002E-2</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>9.4317854052494932E-2</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.19783594092703627</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.12747341499528875</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>8.3344340245674164E-2</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.10661570901423323</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>5.89599609375E-2</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>5.1456542502387848E-2</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>6.559375762009223E-2</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>9.5986661903060488E-2</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>8.7953890489913533E-2</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>4.5759055296922924E-2</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="29"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="38"/>
+        <v>5.4919908466819267E-2</v>
       </c>
       <c r="AF31" s="4">
-        <f t="shared" ref="AF31:AS31" si="31">+AF8/AE8-1</f>
+        <f t="shared" ref="AF31:AS31" si="40">+AF8/AE8-1</f>
         <v>4.7645470351052266E-2</v>
       </c>
       <c r="AG31" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>1.595988842201912E-2</v>
       </c>
       <c r="AH31" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0.12459597539359812</v>
       </c>
       <c r="AI31" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>6.9874528710056172E-2</v>
       </c>
       <c r="AJ31" s="7">
-        <f t="shared" si="31"/>
-        <v>6.9586065455385704E-2</v>
+        <f t="shared" si="40"/>
+        <v>7.0828157947947501E-2</v>
       </c>
       <c r="AK31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>5.4000000000000048E-2</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AM31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AN31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AO31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AP31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AQ31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AR31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AS31" s="7">
-        <f t="shared" si="31"/>
-        <v>5.4000000000000048E-2</v>
+        <f t="shared" si="40"/>
+        <v>5.9999999999999831E-2</v>
       </c>
       <c r="AV31" s="4" t="s">
         <v>47</v>
@@ -4727,135 +5563,135 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="2:260" s="4" customFormat="1">
+    <row r="32" spans="2:246" s="4" customFormat="1">
       <c r="B32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>4.5165843330980948E-2</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-9.70245795601552E-2</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-8.7741935483870881E-2</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.1718749999999778E-2</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>4.1863605671843551E-2</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.1160458452722064</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.14497878359264504</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.4800514800515252E-2</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.11211924821775754</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>7.5096277278562162E-2</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>0.11673872760963566</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>5.9606848446416283E-2</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>3.1468531468531458E-2</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1.8507462686567111E-2</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>-5.9734513274336321E-2</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="29"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.0347097546379977E-2</v>
       </c>
       <c r="AF32" s="4">
-        <f t="shared" ref="AF32:AS32" si="32">+AF9/AE9-1</f>
+        <f t="shared" ref="AF32:AS32" si="41">+AF9/AE9-1</f>
         <v>0.18794186959937154</v>
       </c>
       <c r="AG32" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>-3.3724582575632267E-2</v>
       </c>
       <c r="AH32" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>7.7331052181351723E-2</v>
       </c>
       <c r="AI32" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>9.0995712243925553E-2</v>
       </c>
       <c r="AJ32" s="7">
-        <f t="shared" si="32"/>
-        <v>8.8136826783113964E-3</v>
+        <f t="shared" si="41"/>
+        <v>1.601164483260531E-3</v>
       </c>
       <c r="AK32" s="7">
-        <f t="shared" si="32"/>
-        <v>6.0000000000000275E-2</v>
+        <f t="shared" si="41"/>
+        <v>5.6496943338940619E-2</v>
       </c>
       <c r="AL32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="AM32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="AN32" s="7">
+        <f t="shared" si="41"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AN32" s="7">
-        <f t="shared" si="32"/>
+      <c r="AO32" s="7">
+        <f t="shared" si="41"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AO32" s="7">
-        <f t="shared" si="32"/>
+      <c r="AP32" s="7">
+        <f t="shared" si="41"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AP32" s="7">
-        <f t="shared" si="32"/>
+      <c r="AQ32" s="7">
+        <f t="shared" si="41"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AQ32" s="7">
-        <f t="shared" si="32"/>
+      <c r="AR32" s="7">
+        <f t="shared" si="41"/>
+        <v>5.9999999999999831E-2</v>
+      </c>
+      <c r="AS32" s="7">
+        <f t="shared" si="41"/>
         <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AR32" s="7">
-        <f t="shared" si="32"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AS32" s="7">
-        <f t="shared" si="32"/>
-        <v>6.0000000000000275E-2</v>
       </c>
       <c r="AV32" s="4" t="s">
         <v>48</v>
       </c>
       <c r="AW32" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="2:49">
@@ -4894,8 +5730,8 @@
         <v>49</v>
       </c>
       <c r="AW33" s="1">
-        <f>NPV(AW32,AJ20:IZ20)</f>
-        <v>6301.1864885526929</v>
+        <f>NPV(AW32,AK20:IL20)</f>
+        <v>3784.3132528067426</v>
       </c>
     </row>
     <row r="34" spans="2:49">
@@ -4903,8 +5739,7 @@
         <v>50</v>
       </c>
       <c r="AW34" s="1">
-        <f>+Main!K7-Main!K8</f>
-        <v>-2098.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:49">
@@ -4913,7 +5748,7 @@
       </c>
       <c r="AW35" s="3">
         <f>+SUM(AW33:AW34)</f>
-        <v>4202.5864885526935</v>
+        <v>3784.3132528067426</v>
       </c>
     </row>
     <row r="36" spans="2:49" s="3" customFormat="1">
@@ -4925,67 +5760,67 @@
         <v>-1992.2999999999997</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" ref="S36:T36" si="33">+SUM(S37:S38)-SUM(S49:S50,S54)</f>
+        <f t="shared" ref="S36:T36" si="42">+SUM(S37:S38)-SUM(S49:S50,S54)</f>
         <v>-2152.4999999999995</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>-2145</v>
       </c>
       <c r="U36" s="3">
         <f>+SUM(U37:U38)-SUM(U49:U50,U54)</f>
         <v>-2098.6</v>
       </c>
-      <c r="AI36" s="3">
-        <f>+U36</f>
-        <v>-2098.6</v>
+      <c r="W36" s="3">
+        <f>+SUM(W37:W38)-SUM(W49:W50,W54)</f>
+        <v>-1783.7000000000003</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36:AS36" si="34">+AI36+AJ20</f>
-        <v>-1958.6999999999998</v>
+        <f>+W36</f>
+        <v>-1783.7000000000003</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" si="34"/>
-        <v>-1778.6889068135115</v>
+        <f t="shared" ref="AJ36:AS36" si="43">+AJ36+AK20</f>
+        <v>-1672.9565927785836</v>
       </c>
       <c r="AL36" s="3">
-        <f t="shared" si="34"/>
-        <v>-1568.6439283211769</v>
+        <f t="shared" si="43"/>
+        <v>-1550.5591460093788</v>
       </c>
       <c r="AM36" s="3">
-        <f t="shared" si="34"/>
-        <v>-1326.0695213395281</v>
+        <f t="shared" si="43"/>
+        <v>-1415.8084173195175</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" si="34"/>
-        <v>-1048.2829605505729</v>
+        <f t="shared" si="43"/>
+        <v>-1267.9632097937608</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" si="34"/>
-        <v>-732.40108529837289</v>
+        <f t="shared" si="43"/>
+        <v>-1106.2378547019548</v>
       </c>
       <c r="AP36" s="3">
-        <f t="shared" si="34"/>
-        <v>-375.32614199054819</v>
+        <f t="shared" si="43"/>
+        <v>-929.79954319013689</v>
       </c>
       <c r="AQ36" s="3">
-        <f t="shared" si="34"/>
-        <v>26.269338055950925</v>
+        <f t="shared" si="43"/>
+        <v>-737.76549787310557</v>
       </c>
       <c r="AR36" s="3">
-        <f t="shared" si="34"/>
-        <v>475.95868941354172</v>
+        <f t="shared" si="43"/>
+        <v>-529.19997472254886</v>
       </c>
       <c r="AS36" s="3">
-        <f t="shared" si="34"/>
-        <v>977.57836025686322</v>
+        <f t="shared" si="43"/>
+        <v>-303.11108506845488</v>
       </c>
       <c r="AV36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AW36" s="1">
         <f>+Main!K5</f>
-        <v>45.051141000000001</v>
+        <v>44.461995999999999</v>
       </c>
     </row>
     <row r="37" spans="2:49">
@@ -5004,12 +5839,15 @@
       <c r="U37" s="1">
         <v>933.5</v>
       </c>
+      <c r="W37" s="1">
+        <v>1122.7</v>
+      </c>
       <c r="AV37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AW37" s="1">
         <f>+AW35/AW36</f>
-        <v>93.284795795797791</v>
+        <v>85.113436041124714</v>
       </c>
     </row>
     <row r="38" spans="2:49">
@@ -5028,12 +5866,15 @@
       <c r="U38" s="1">
         <v>387</v>
       </c>
+      <c r="W38" s="1">
+        <v>557.9</v>
+      </c>
       <c r="AV38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AW38" s="1">
         <f>+Main!K4</f>
-        <v>80.84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:49">
@@ -5057,7 +5898,7 @@
       </c>
       <c r="AW39" s="4">
         <f>+AW37/AW38-1</f>
-        <v>0.15394354027458923</v>
+        <v>-0.12254189648325031</v>
       </c>
     </row>
     <row r="40" spans="2:49">
@@ -5200,7 +6041,7 @@
         <v>6264.7999999999993</v>
       </c>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:23">
       <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
@@ -5217,7 +6058,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:23">
       <c r="B50" s="1" t="s">
         <v>57</v>
       </c>
@@ -5233,8 +6074,11 @@
       <c r="U50" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="2:21">
+      <c r="W50" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23">
       <c r="B51" s="1" t="s">
         <v>58</v>
       </c>
@@ -5251,7 +6095,7 @@
         <v>206.7</v>
       </c>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:23">
       <c r="B52" s="1" t="s">
         <v>59</v>
       </c>
@@ -5268,7 +6112,7 @@
         <v>1016.7</v>
       </c>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:23">
       <c r="B53" s="1" t="s">
         <v>60</v>
       </c>
@@ -5284,8 +6128,11 @@
       <c r="U53" s="1">
         <v>184.3</v>
       </c>
-    </row>
-    <row r="54" spans="2:21">
+      <c r="W53" s="1">
+        <v>340.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23">
       <c r="B54" s="1" t="s">
         <v>61</v>
       </c>
@@ -5301,8 +6148,11 @@
       <c r="U54" s="1">
         <v>3202.2</v>
       </c>
-    </row>
-    <row r="55" spans="2:21">
+      <c r="W54" s="1">
+        <v>3309.3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23">
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
@@ -5319,7 +6169,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:23">
       <c r="B56" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,7 +6186,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:23">
       <c r="B57" s="1" t="s">
         <v>64</v>
       </c>
@@ -5353,7 +6203,7 @@
         <v>269.7</v>
       </c>
     </row>
-    <row r="58" spans="2:21">
+    <row r="58" spans="2:23">
       <c r="B58" s="1" t="s">
         <v>65</v>
       </c>
@@ -5370,7 +6220,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="59" spans="2:21">
+    <row r="59" spans="2:23">
       <c r="B59" s="1" t="s">
         <v>66</v>
       </c>
@@ -5387,7 +6237,7 @@
         <v>226.8</v>
       </c>
     </row>
-    <row r="60" spans="2:21">
+    <row r="60" spans="2:23">
       <c r="B60" s="1" t="s">
         <v>55</v>
       </c>
@@ -5404,7 +6254,7 @@
         <v>584.29999999999995</v>
       </c>
     </row>
-    <row r="61" spans="2:21">
+    <row r="61" spans="2:23">
       <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5428,9 +6278,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="AG10:AI10 S23:AF23 C24:N24 C10:D17 S10:U17 W10:AF17 C18:D23 S18:U22 W18:AF22" formulaRange="1"/>
+    <ignoredError sqref="AG10:AI10 S23:AF23 C24:N24 C10:D17 S10:U17 X10:AF17 C18:D23 S18:U22 X18:AF22" formulaRange="1"/>
     <ignoredError sqref="G10:N10 G12:N12 G11:N11 G15:N15 G13:N13 G14:N14 G17:N17 G16:N16 G18:N18 G21:N21 G19:N19 F23:N23 G22:N22 G20:N20 E10:E17 O10:R17 E18:E23 O18:R23" formula="1" formulaRange="1"/>
-    <ignoredError sqref="F10:F17 O24:R25 Q30:R30 AJ10:AJ12 AJ17 AJ13:AJ14 AJ15 AJ16 AJ21 AJ18 AJ22:AJ23 AK10:AS12 AK14:AS15 F18:F22 AK18:AS18 AK17:AS17 AM16:AS16 AJ20 AK20:AS22" formula="1"/>
+    <ignoredError sqref="F10:F17 O24:R25 Q30:R30 AJ23 AK10:AS12 AK14:AS15 F18:F22 AK18:AS18 AK17:AS17 AM16:AS16 AK20:AS22" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
